--- a/data/Formatted_Data2.xlsx
+++ b/data/Formatted_Data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\AED Dropbox\Scratch\Hawkesbury\Berowra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Berowra\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E272AD-1A7D-43FF-B57E-2EC1829577D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF442A-B41D-4B4E-9618-86AB499A355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8810" yWindow="2910" windowWidth="27500" windowHeight="13970" xr2:uid="{179C7B9B-FBED-42AE-BEE7-688DF0A20E47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{179C7B9B-FBED-42AE-BEE7-688DF0A20E47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Site code</t>
   </si>
@@ -91,12 +91,6 @@
   </si>
   <si>
     <t>Chlorophyll - a (mg/m3)</t>
-  </si>
-  <si>
-    <t>NB13</t>
-  </si>
-  <si>
-    <t>NB11</t>
   </si>
 </sst>
 </file>
@@ -451,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FE082D-6D88-4AE4-990F-88E288CBD897}">
   <dimension ref="A1:S788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="A295" sqref="A295:S788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,8 +514,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
+      <c r="A2">
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>37452</v>
@@ -564,8 +558,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>19</v>
+      <c r="A3">
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>37482</v>
@@ -608,8 +602,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>19</v>
+      <c r="A4">
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>37512</v>
@@ -652,8 +646,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>19</v>
+      <c r="A5">
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>37554</v>
@@ -696,8 +690,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>19</v>
+      <c r="A6">
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>37572</v>
@@ -740,8 +734,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
+      <c r="A7">
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>37602</v>
@@ -784,8 +778,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>19</v>
+      <c r="A8">
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>37644</v>
@@ -828,8 +822,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>19</v>
+      <c r="A9">
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>37662</v>
@@ -872,8 +866,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>19</v>
+      <c r="A10">
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>37674</v>
@@ -913,8 +907,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>19</v>
+      <c r="A11">
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>37686</v>
@@ -957,8 +951,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>19</v>
+      <c r="A12">
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>37734</v>
@@ -1001,8 +995,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>19</v>
+      <c r="A13">
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>37758</v>
@@ -1042,8 +1036,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>19</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>37770</v>
@@ -1086,8 +1080,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>19</v>
+      <c r="A15">
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>37788</v>
@@ -1130,8 +1124,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>19</v>
+      <c r="A16">
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>37818</v>
@@ -1171,8 +1165,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>19</v>
+      <c r="A17">
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>37843</v>
@@ -1212,8 +1206,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
+      <c r="A18">
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>37848</v>
@@ -1253,8 +1247,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>19</v>
+      <c r="A19">
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>37878</v>
@@ -1294,8 +1288,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20">
+        <v>13</v>
       </c>
       <c r="B20" s="1">
         <v>37938</v>
@@ -1335,8 +1329,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>19</v>
+      <c r="A21">
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>37974</v>
@@ -1376,8 +1370,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>19</v>
+      <c r="A22">
+        <v>13</v>
       </c>
       <c r="B22" s="1">
         <v>38004</v>
@@ -1417,8 +1411,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>19</v>
+      <c r="A23">
+        <v>13</v>
       </c>
       <c r="B23" s="1">
         <v>38027</v>
@@ -1455,8 +1449,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>19</v>
+      <c r="A24">
+        <v>13</v>
       </c>
       <c r="B24" s="1">
         <v>38044</v>
@@ -1493,8 +1487,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>19</v>
+      <c r="A25">
+        <v>13</v>
       </c>
       <c r="B25" s="1">
         <v>38111</v>
@@ -1534,8 +1528,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>19</v>
+      <c r="A26">
+        <v>13</v>
       </c>
       <c r="B26" s="1">
         <v>38124</v>
@@ -1575,8 +1569,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>19</v>
+      <c r="A27">
+        <v>13</v>
       </c>
       <c r="B27" s="1">
         <v>38194</v>
@@ -1616,8 +1610,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>19</v>
+      <c r="A28">
+        <v>13</v>
       </c>
       <c r="B28" s="1">
         <v>38217</v>
@@ -1657,8 +1651,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>19</v>
+      <c r="A29">
+        <v>13</v>
       </c>
       <c r="B29" s="1">
         <v>38253</v>
@@ -1698,8 +1692,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>19</v>
+      <c r="A30">
+        <v>13</v>
       </c>
       <c r="B30" s="1">
         <v>38266</v>
@@ -1739,8 +1733,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>19</v>
+      <c r="A31">
+        <v>13</v>
       </c>
       <c r="B31" s="1">
         <v>38293</v>
@@ -1780,8 +1774,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>19</v>
+      <c r="A32">
+        <v>13</v>
       </c>
       <c r="B32" s="1">
         <v>38301</v>
@@ -1821,8 +1815,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>19</v>
+      <c r="A33">
+        <v>13</v>
       </c>
       <c r="B33" s="1">
         <v>38313</v>
@@ -1862,8 +1856,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>19</v>
+      <c r="A34">
+        <v>13</v>
       </c>
       <c r="B34" s="1">
         <v>38324</v>
@@ -1903,8 +1897,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>19</v>
+      <c r="A35">
+        <v>13</v>
       </c>
       <c r="B35" s="1">
         <v>38373</v>
@@ -1944,8 +1938,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>19</v>
+      <c r="A36">
+        <v>13</v>
       </c>
       <c r="B36" s="1">
         <v>38390</v>
@@ -1982,8 +1976,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>19</v>
+      <c r="A37">
+        <v>13</v>
       </c>
       <c r="B37" s="1">
         <v>38397</v>
@@ -2023,8 +2017,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>19</v>
+      <c r="A38">
+        <v>13</v>
       </c>
       <c r="B38" s="1">
         <v>38444</v>
@@ -2061,8 +2055,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>19</v>
+      <c r="A39">
+        <v>13</v>
       </c>
       <c r="B39" s="1">
         <v>38463</v>
@@ -2102,8 +2096,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>19</v>
+      <c r="A40">
+        <v>13</v>
       </c>
       <c r="B40" s="1">
         <v>38473</v>
@@ -2143,8 +2137,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>19</v>
+      <c r="A41">
+        <v>13</v>
       </c>
       <c r="B41" s="1">
         <v>38499</v>
@@ -2184,8 +2178,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>19</v>
+      <c r="A42">
+        <v>13</v>
       </c>
       <c r="B42" s="1">
         <v>38523</v>
@@ -2225,8 +2219,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>19</v>
+      <c r="A43">
+        <v>13</v>
       </c>
       <c r="B43" s="1">
         <v>38553</v>
@@ -2266,8 +2260,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>19</v>
+      <c r="A44">
+        <v>13</v>
       </c>
       <c r="B44" s="1">
         <v>38628</v>
@@ -2307,8 +2301,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>19</v>
+      <c r="A45">
+        <v>13</v>
       </c>
       <c r="B45" s="1">
         <v>38655</v>
@@ -2348,8 +2342,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>19</v>
+      <c r="A46">
+        <v>13</v>
       </c>
       <c r="B46" s="1">
         <v>38685</v>
@@ -2389,8 +2383,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>19</v>
+      <c r="A47">
+        <v>13</v>
       </c>
       <c r="B47" s="1">
         <v>38703</v>
@@ -2433,8 +2427,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>19</v>
+      <c r="A48">
+        <v>13</v>
       </c>
       <c r="B48" s="1">
         <v>38733</v>
@@ -2477,8 +2471,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>19</v>
+      <c r="A49">
+        <v>13</v>
       </c>
       <c r="B49" s="1">
         <v>38763</v>
@@ -2521,8 +2515,8 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>19</v>
+      <c r="A50">
+        <v>13</v>
       </c>
       <c r="B50" s="1">
         <v>38799</v>
@@ -2565,8 +2559,8 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>19</v>
+      <c r="A51">
+        <v>13</v>
       </c>
       <c r="B51" s="1">
         <v>38883</v>
@@ -2609,8 +2603,8 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>19</v>
+      <c r="A52">
+        <v>13</v>
       </c>
       <c r="B52" s="1">
         <v>38909</v>
@@ -2653,8 +2647,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>19</v>
+      <c r="A53">
+        <v>13</v>
       </c>
       <c r="B53" s="1">
         <v>38910</v>
@@ -2697,8 +2691,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>19</v>
+      <c r="A54">
+        <v>13</v>
       </c>
       <c r="B54" s="1">
         <v>38938</v>
@@ -2738,8 +2732,8 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>19</v>
+      <c r="A55">
+        <v>13</v>
       </c>
       <c r="B55" s="1">
         <v>38939</v>
@@ -2782,8 +2776,8 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>19</v>
+      <c r="A56">
+        <v>13</v>
       </c>
       <c r="B56" s="1">
         <v>38968</v>
@@ -2826,8 +2820,8 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>19</v>
+      <c r="A57">
+        <v>13</v>
       </c>
       <c r="B57" s="1">
         <v>38974</v>
@@ -2870,8 +2864,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>19</v>
+      <c r="A58">
+        <v>13</v>
       </c>
       <c r="B58" s="1">
         <v>38994</v>
@@ -2914,8 +2908,8 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>19</v>
+      <c r="A59">
+        <v>13</v>
       </c>
       <c r="B59" s="1">
         <v>38995</v>
@@ -2958,8 +2952,8 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>19</v>
+      <c r="A60">
+        <v>13</v>
       </c>
       <c r="B60" s="1">
         <v>38997</v>
@@ -3002,8 +2996,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>19</v>
+      <c r="A61">
+        <v>13</v>
       </c>
       <c r="B61" s="1">
         <v>39126</v>
@@ -3043,8 +3037,8 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>19</v>
+      <c r="A62">
+        <v>13</v>
       </c>
       <c r="B62" s="1">
         <v>39150</v>
@@ -3087,8 +3081,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>19</v>
+      <c r="A63">
+        <v>13</v>
       </c>
       <c r="B63" s="1">
         <v>39151</v>
@@ -3131,8 +3125,8 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>19</v>
+      <c r="A64">
+        <v>13</v>
       </c>
       <c r="B64" s="1">
         <v>39204</v>
@@ -3175,8 +3169,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>19</v>
+      <c r="A65">
+        <v>13</v>
       </c>
       <c r="B65" s="1">
         <v>39208</v>
@@ -3219,8 +3213,8 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>19</v>
+      <c r="A66">
+        <v>13</v>
       </c>
       <c r="B66" s="1">
         <v>39220</v>
@@ -3263,8 +3257,8 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>19</v>
+      <c r="A67">
+        <v>13</v>
       </c>
       <c r="B67" s="1">
         <v>39266</v>
@@ -3307,8 +3301,8 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>19</v>
+      <c r="A68">
+        <v>13</v>
       </c>
       <c r="B68" s="1">
         <v>39288</v>
@@ -3351,8 +3345,8 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>19</v>
+      <c r="A69">
+        <v>13</v>
       </c>
       <c r="B69" s="1">
         <v>39306</v>
@@ -3395,8 +3389,8 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>19</v>
+      <c r="A70">
+        <v>13</v>
       </c>
       <c r="B70" s="1">
         <v>39310</v>
@@ -3439,8 +3433,8 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>19</v>
+      <c r="A71">
+        <v>13</v>
       </c>
       <c r="B71" s="1">
         <v>39417</v>
@@ -3483,8 +3477,8 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>19</v>
+      <c r="A72">
+        <v>13</v>
       </c>
       <c r="B72" s="1">
         <v>39420</v>
@@ -3527,8 +3521,8 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>19</v>
+      <c r="A73">
+        <v>13</v>
       </c>
       <c r="B73" s="1">
         <v>39502</v>
@@ -3571,8 +3565,8 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>19</v>
+      <c r="A74">
+        <v>13</v>
       </c>
       <c r="B74" s="1">
         <v>39538</v>
@@ -3615,8 +3609,8 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>19</v>
+      <c r="A75">
+        <v>13</v>
       </c>
       <c r="B75" s="1">
         <v>39568</v>
@@ -3659,8 +3653,8 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>19</v>
+      <c r="A76">
+        <v>13</v>
       </c>
       <c r="B76" s="1">
         <v>39577</v>
@@ -3700,8 +3694,8 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>19</v>
+      <c r="A77">
+        <v>13</v>
       </c>
       <c r="B77" s="1">
         <v>39579</v>
@@ -3741,8 +3735,8 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>19</v>
+      <c r="A78">
+        <v>13</v>
       </c>
       <c r="B78" s="1">
         <v>39598</v>
@@ -3785,8 +3779,8 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>19</v>
+      <c r="A79">
+        <v>13</v>
       </c>
       <c r="B79" s="1">
         <v>39601</v>
@@ -3826,8 +3820,8 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>19</v>
+      <c r="A80">
+        <v>13</v>
       </c>
       <c r="B80" s="1">
         <v>39605</v>
@@ -3867,8 +3861,8 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>19</v>
+      <c r="A81">
+        <v>13</v>
       </c>
       <c r="B81" s="1">
         <v>39622</v>
@@ -3911,8 +3905,8 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>19</v>
+      <c r="A82">
+        <v>13</v>
       </c>
       <c r="B82" s="1">
         <v>39630</v>
@@ -3955,8 +3949,8 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>19</v>
+      <c r="A83">
+        <v>13</v>
       </c>
       <c r="B83" s="1">
         <v>39632</v>
@@ -3999,8 +3993,8 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>19</v>
+      <c r="A84">
+        <v>13</v>
       </c>
       <c r="B84" s="1">
         <v>39660</v>
@@ -4040,8 +4034,8 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>19</v>
+      <c r="A85">
+        <v>13</v>
       </c>
       <c r="B85" s="1">
         <v>39674</v>
@@ -4081,8 +4075,8 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>19</v>
+      <c r="A86">
+        <v>13</v>
       </c>
       <c r="B86" s="1">
         <v>39716</v>
@@ -4122,8 +4116,8 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>19</v>
+      <c r="A87">
+        <v>13</v>
       </c>
       <c r="B87" s="1">
         <v>39738</v>
@@ -4163,8 +4157,8 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>19</v>
+      <c r="A88">
+        <v>13</v>
       </c>
       <c r="B88" s="1">
         <v>39759</v>
@@ -4204,8 +4198,8 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>19</v>
+      <c r="A89">
+        <v>13</v>
       </c>
       <c r="B89" s="1">
         <v>39777</v>
@@ -4245,8 +4239,8 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>19</v>
+      <c r="A90">
+        <v>13</v>
       </c>
       <c r="B90" s="1">
         <v>39798</v>
@@ -4286,8 +4280,8 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>19</v>
+      <c r="A91">
+        <v>13</v>
       </c>
       <c r="B91" s="1">
         <v>39817</v>
@@ -4327,8 +4321,8 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>19</v>
+      <c r="A92">
+        <v>13</v>
       </c>
       <c r="B92" s="1">
         <v>39843</v>
@@ -4368,8 +4362,8 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>19</v>
+      <c r="A93">
+        <v>13</v>
       </c>
       <c r="B93" s="1">
         <v>39861</v>
@@ -4409,8 +4403,8 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>19</v>
+      <c r="A94">
+        <v>13</v>
       </c>
       <c r="B94" s="1">
         <v>39885</v>
@@ -4450,8 +4444,8 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>19</v>
+      <c r="A95">
+        <v>13</v>
       </c>
       <c r="B95" s="1">
         <v>39909</v>
@@ -4491,8 +4485,8 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>19</v>
+      <c r="A96">
+        <v>13</v>
       </c>
       <c r="B96" s="1">
         <v>39927</v>
@@ -4532,8 +4526,8 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>19</v>
+      <c r="A97">
+        <v>13</v>
       </c>
       <c r="B97" s="1">
         <v>39948</v>
@@ -4573,8 +4567,8 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>19</v>
+      <c r="A98">
+        <v>13</v>
       </c>
       <c r="B98" s="1">
         <v>39965</v>
@@ -4614,8 +4608,8 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>19</v>
+      <c r="A99">
+        <v>13</v>
       </c>
       <c r="B99" s="1">
         <v>39988</v>
@@ -4655,8 +4649,8 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>19</v>
+      <c r="A100">
+        <v>13</v>
       </c>
       <c r="B100" s="1">
         <v>40002</v>
@@ -4696,8 +4690,8 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>19</v>
+      <c r="A101">
+        <v>13</v>
       </c>
       <c r="B101" s="1">
         <v>40010</v>
@@ -4737,8 +4731,8 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>19</v>
+      <c r="A102">
+        <v>13</v>
       </c>
       <c r="B102" s="1">
         <v>40052</v>
@@ -4778,8 +4772,8 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>19</v>
+      <c r="A103">
+        <v>13</v>
       </c>
       <c r="B103" s="1">
         <v>40066</v>
@@ -4819,8 +4813,8 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>19</v>
+      <c r="A104">
+        <v>13</v>
       </c>
       <c r="B104" s="1">
         <v>40074</v>
@@ -4860,8 +4854,8 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>19</v>
+      <c r="A105">
+        <v>13</v>
       </c>
       <c r="B105" s="1">
         <v>40098</v>
@@ -4901,8 +4895,8 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>19</v>
+      <c r="A106">
+        <v>13</v>
       </c>
       <c r="B106" s="1">
         <v>40115</v>
@@ -4942,8 +4936,8 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>19</v>
+      <c r="A107">
+        <v>13</v>
       </c>
       <c r="B107" s="1">
         <v>40137</v>
@@ -4983,8 +4977,8 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>19</v>
+      <c r="A108">
+        <v>13</v>
       </c>
       <c r="B108" s="1">
         <v>40169</v>
@@ -5024,8 +5018,8 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>19</v>
+      <c r="A109">
+        <v>13</v>
       </c>
       <c r="B109" s="1">
         <v>40188</v>
@@ -5065,8 +5059,8 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>19</v>
+      <c r="A110">
+        <v>13</v>
       </c>
       <c r="B110" s="1">
         <v>40190</v>
@@ -5106,8 +5100,8 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>19</v>
+      <c r="A111">
+        <v>13</v>
       </c>
       <c r="B111" s="1">
         <v>40196</v>
@@ -5147,8 +5141,8 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>19</v>
+      <c r="A112">
+        <v>13</v>
       </c>
       <c r="B112" s="1">
         <v>40227</v>
@@ -5188,8 +5182,8 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>19</v>
+      <c r="A113">
+        <v>13</v>
       </c>
       <c r="B113" s="1">
         <v>40263</v>
@@ -5229,8 +5223,8 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>19</v>
+      <c r="A114">
+        <v>13</v>
       </c>
       <c r="B114" s="1">
         <v>40273</v>
@@ -5270,8 +5264,8 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>19</v>
+      <c r="A115">
+        <v>13</v>
       </c>
       <c r="B115" s="1">
         <v>40284</v>
@@ -5311,8 +5305,8 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>19</v>
+      <c r="A116">
+        <v>13</v>
       </c>
       <c r="B116" s="1">
         <v>40301</v>
@@ -5352,8 +5346,8 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>19</v>
+      <c r="A117">
+        <v>13</v>
       </c>
       <c r="B117" s="1">
         <v>40325</v>
@@ -5393,8 +5387,8 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>19</v>
+      <c r="A118">
+        <v>13</v>
       </c>
       <c r="B118" s="1">
         <v>40347</v>
@@ -5434,8 +5428,8 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>19</v>
+      <c r="A119">
+        <v>13</v>
       </c>
       <c r="B119" s="1">
         <v>40366</v>
@@ -5475,8 +5469,8 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>19</v>
+      <c r="A120">
+        <v>13</v>
       </c>
       <c r="B120" s="1">
         <v>40385</v>
@@ -5516,8 +5510,8 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>19</v>
+      <c r="A121">
+        <v>13</v>
       </c>
       <c r="B121" s="1">
         <v>40410</v>
@@ -5557,8 +5551,8 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>19</v>
+      <c r="A122">
+        <v>13</v>
       </c>
       <c r="B122" s="1">
         <v>40460</v>
@@ -5598,8 +5592,8 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>19</v>
+      <c r="A123">
+        <v>13</v>
       </c>
       <c r="B123" s="1">
         <v>40462</v>
@@ -5639,8 +5633,8 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>19</v>
+      <c r="A124">
+        <v>13</v>
       </c>
       <c r="B124" s="1">
         <v>40471</v>
@@ -5680,8 +5674,8 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>19</v>
+      <c r="A125">
+        <v>13</v>
       </c>
       <c r="B125" s="1">
         <v>40484</v>
@@ -5721,8 +5715,8 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>19</v>
+      <c r="A126">
+        <v>13</v>
       </c>
       <c r="B126" s="1">
         <v>40534</v>
@@ -5762,8 +5756,8 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>19</v>
+      <c r="A127">
+        <v>13</v>
       </c>
       <c r="B127" s="1">
         <v>40557</v>
@@ -5803,8 +5797,8 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>19</v>
+      <c r="A128">
+        <v>13</v>
       </c>
       <c r="B128" s="1">
         <v>40576</v>
@@ -5844,8 +5838,8 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>19</v>
+      <c r="A129">
+        <v>13</v>
       </c>
       <c r="B129" s="1">
         <v>40597</v>
@@ -5885,8 +5879,8 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>19</v>
+      <c r="A130">
+        <v>13</v>
       </c>
       <c r="B130" s="1">
         <v>40618</v>
@@ -5926,8 +5920,8 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>19</v>
+      <c r="A131">
+        <v>13</v>
       </c>
       <c r="B131" s="1">
         <v>40644</v>
@@ -5973,8 +5967,8 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>19</v>
+      <c r="A132">
+        <v>13</v>
       </c>
       <c r="B132" s="1">
         <v>40660</v>
@@ -6014,8 +6008,8 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>19</v>
+      <c r="A133">
+        <v>13</v>
       </c>
       <c r="B133" s="1">
         <v>40679</v>
@@ -6052,8 +6046,8 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>19</v>
+      <c r="A134">
+        <v>13</v>
       </c>
       <c r="B134" s="1">
         <v>40698</v>
@@ -6093,8 +6087,8 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>19</v>
+      <c r="A135">
+        <v>13</v>
       </c>
       <c r="B135" s="1">
         <v>40723</v>
@@ -6134,8 +6128,8 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>19</v>
+      <c r="A136">
+        <v>13</v>
       </c>
       <c r="B136" s="1">
         <v>40730</v>
@@ -6175,8 +6169,8 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>19</v>
+      <c r="A137">
+        <v>13</v>
       </c>
       <c r="B137" s="1">
         <v>40745</v>
@@ -6216,8 +6210,8 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>19</v>
+      <c r="A138">
+        <v>13</v>
       </c>
       <c r="B138" s="1">
         <v>40786</v>
@@ -6257,8 +6251,8 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>19</v>
+      <c r="A139">
+        <v>13</v>
       </c>
       <c r="B139" s="1">
         <v>40808</v>
@@ -6298,8 +6292,8 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>19</v>
+      <c r="A140">
+        <v>13</v>
       </c>
       <c r="B140" s="1">
         <v>40830</v>
@@ -6339,8 +6333,8 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>19</v>
+      <c r="A141">
+        <v>13</v>
       </c>
       <c r="B141" s="1">
         <v>40855</v>
@@ -6380,8 +6374,8 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>19</v>
+      <c r="A142">
+        <v>13</v>
       </c>
       <c r="B142" s="1">
         <v>40872</v>
@@ -6427,8 +6421,8 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>19</v>
+      <c r="A143">
+        <v>13</v>
       </c>
       <c r="B143" s="1">
         <v>40891</v>
@@ -6474,8 +6468,8 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>19</v>
+      <c r="A144">
+        <v>13</v>
       </c>
       <c r="B144" s="1">
         <v>40914</v>
@@ -6515,8 +6509,8 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>19</v>
+      <c r="A145">
+        <v>13</v>
       </c>
       <c r="B145" s="1">
         <v>40932</v>
@@ -6562,8 +6556,8 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>19</v>
+      <c r="A146">
+        <v>13</v>
       </c>
       <c r="B146" s="1">
         <v>40956</v>
@@ -6609,8 +6603,8 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>19</v>
+      <c r="A147">
+        <v>13</v>
       </c>
       <c r="B147" s="1">
         <v>40976</v>
@@ -6650,8 +6644,8 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>19</v>
+      <c r="A148">
+        <v>13</v>
       </c>
       <c r="B148" s="1">
         <v>40996</v>
@@ -6697,8 +6691,8 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>19</v>
+      <c r="A149">
+        <v>13</v>
       </c>
       <c r="B149" s="1">
         <v>41009</v>
@@ -6738,8 +6732,8 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>19</v>
+      <c r="A150">
+        <v>13</v>
       </c>
       <c r="B150" s="1">
         <v>41016</v>
@@ -6785,8 +6779,8 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>19</v>
+      <c r="A151">
+        <v>13</v>
       </c>
       <c r="B151" s="1">
         <v>41061</v>
@@ -6832,8 +6826,8 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>19</v>
+      <c r="A152">
+        <v>13</v>
       </c>
       <c r="B152" s="1">
         <v>41081</v>
@@ -6873,8 +6867,8 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>19</v>
+      <c r="A153">
+        <v>13</v>
       </c>
       <c r="B153" s="1">
         <v>41102</v>
@@ -6914,8 +6908,8 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>19</v>
+      <c r="A154">
+        <v>13</v>
       </c>
       <c r="B154" s="1">
         <v>41145</v>
@@ -6955,8 +6949,8 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>19</v>
+      <c r="A155">
+        <v>13</v>
       </c>
       <c r="B155" s="1">
         <v>41206</v>
@@ -6996,8 +6990,8 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>19</v>
+      <c r="A156">
+        <v>13</v>
       </c>
       <c r="B156" s="1">
         <v>41218</v>
@@ -7037,8 +7031,8 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>19</v>
+      <c r="A157">
+        <v>13</v>
       </c>
       <c r="B157" s="1">
         <v>41229</v>
@@ -7078,8 +7072,8 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>19</v>
+      <c r="A158">
+        <v>13</v>
       </c>
       <c r="B158" s="1">
         <v>41250</v>
@@ -7119,8 +7113,8 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>19</v>
+      <c r="A159">
+        <v>13</v>
       </c>
       <c r="B159" s="1">
         <v>41252</v>
@@ -7160,8 +7154,8 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>19</v>
+      <c r="A160">
+        <v>13</v>
       </c>
       <c r="B160" s="1">
         <v>41261</v>
@@ -7201,8 +7195,8 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>19</v>
+      <c r="A161">
+        <v>13</v>
       </c>
       <c r="B161" s="1">
         <v>41277</v>
@@ -7242,8 +7236,8 @@
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>19</v>
+      <c r="A162">
+        <v>13</v>
       </c>
       <c r="B162" s="1">
         <v>41279</v>
@@ -7283,8 +7277,8 @@
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>19</v>
+      <c r="A163">
+        <v>13</v>
       </c>
       <c r="B163" s="1">
         <v>41291</v>
@@ -7324,8 +7318,8 @@
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>19</v>
+      <c r="A164">
+        <v>13</v>
       </c>
       <c r="B164" s="1">
         <v>41314</v>
@@ -7365,8 +7359,8 @@
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>19</v>
+      <c r="A165">
+        <v>13</v>
       </c>
       <c r="B165" s="1">
         <v>41352</v>
@@ -7406,8 +7400,8 @@
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>19</v>
+      <c r="A166">
+        <v>13</v>
       </c>
       <c r="B166" s="1">
         <v>41401</v>
@@ -7447,8 +7441,8 @@
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>19</v>
+      <c r="A167">
+        <v>13</v>
       </c>
       <c r="B167" s="1">
         <v>41417</v>
@@ -7488,8 +7482,8 @@
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>19</v>
+      <c r="A168">
+        <v>13</v>
       </c>
       <c r="B168" s="1">
         <v>41439</v>
@@ -7529,8 +7523,8 @@
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>19</v>
+      <c r="A169">
+        <v>13</v>
       </c>
       <c r="B169" s="1">
         <v>41480</v>
@@ -7570,8 +7564,8 @@
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>19</v>
+      <c r="A170">
+        <v>13</v>
       </c>
       <c r="B170" s="1">
         <v>41488</v>
@@ -7611,8 +7605,8 @@
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>19</v>
+      <c r="A171">
+        <v>13</v>
       </c>
       <c r="B171" s="1">
         <v>41497</v>
@@ -7652,8 +7646,8 @@
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>19</v>
+      <c r="A172">
+        <v>13</v>
       </c>
       <c r="B172" s="1">
         <v>41502</v>
@@ -7693,8 +7687,8 @@
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>19</v>
+      <c r="A173">
+        <v>13</v>
       </c>
       <c r="B173" s="1">
         <v>41541</v>
@@ -7734,8 +7728,8 @@
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>19</v>
+      <c r="A174">
+        <v>13</v>
       </c>
       <c r="B174" s="1">
         <v>41564</v>
@@ -7775,8 +7769,8 @@
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>19</v>
+      <c r="A175">
+        <v>13</v>
       </c>
       <c r="B175" s="1">
         <v>41582</v>
@@ -7816,8 +7810,8 @@
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>19</v>
+      <c r="A176">
+        <v>13</v>
       </c>
       <c r="B176" s="1">
         <v>41606</v>
@@ -7857,8 +7851,8 @@
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>19</v>
+      <c r="A177">
+        <v>13</v>
       </c>
       <c r="B177" s="1">
         <v>41627</v>
@@ -7898,8 +7892,8 @@
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>19</v>
+      <c r="A178">
+        <v>13</v>
       </c>
       <c r="B178" s="1">
         <v>41669</v>
@@ -7939,8 +7933,8 @@
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>19</v>
+      <c r="A179">
+        <v>13</v>
       </c>
       <c r="B179" s="1">
         <v>41691</v>
@@ -7980,8 +7974,8 @@
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>19</v>
+      <c r="A180">
+        <v>13</v>
       </c>
       <c r="B180" s="1">
         <v>41702</v>
@@ -8021,8 +8015,8 @@
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>19</v>
+      <c r="A181">
+        <v>13</v>
       </c>
       <c r="B181" s="1">
         <v>41711</v>
@@ -8062,8 +8056,8 @@
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>19</v>
+      <c r="A182">
+        <v>13</v>
       </c>
       <c r="B182" s="1">
         <v>41759</v>
@@ -8103,8 +8097,8 @@
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>19</v>
+      <c r="A183">
+        <v>13</v>
       </c>
       <c r="B183" s="1">
         <v>41765</v>
@@ -8144,8 +8138,8 @@
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>19</v>
+      <c r="A184">
+        <v>13</v>
       </c>
       <c r="B184" s="1">
         <v>41773</v>
@@ -8185,8 +8179,8 @@
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>19</v>
+      <c r="A185">
+        <v>13</v>
       </c>
       <c r="B185" s="1">
         <v>41816</v>
@@ -8226,8 +8220,8 @@
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>19</v>
+      <c r="A186">
+        <v>13</v>
       </c>
       <c r="B186" s="1">
         <v>41842</v>
@@ -8267,8 +8261,8 @@
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>19</v>
+      <c r="A187">
+        <v>13</v>
       </c>
       <c r="B187" s="1">
         <v>41859</v>
@@ -8308,8 +8302,8 @@
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>19</v>
+      <c r="A188">
+        <v>13</v>
       </c>
       <c r="B188" s="1">
         <v>41861</v>
@@ -8349,8 +8343,8 @@
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>19</v>
+      <c r="A189">
+        <v>13</v>
       </c>
       <c r="B189" s="1">
         <v>41877</v>
@@ -8390,8 +8384,8 @@
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>19</v>
+      <c r="A190">
+        <v>13</v>
       </c>
       <c r="B190" s="1">
         <v>41883</v>
@@ -8431,8 +8425,8 @@
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>19</v>
+      <c r="A191">
+        <v>13</v>
       </c>
       <c r="B191" s="1">
         <v>41898</v>
@@ -8472,8 +8466,8 @@
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>19</v>
+      <c r="A192">
+        <v>13</v>
       </c>
       <c r="B192" s="1">
         <v>41924</v>
@@ -8513,8 +8507,8 @@
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>19</v>
+      <c r="A193">
+        <v>13</v>
       </c>
       <c r="B193" s="1">
         <v>41942</v>
@@ -8554,8 +8548,8 @@
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>19</v>
+      <c r="A194">
+        <v>13</v>
       </c>
       <c r="B194" s="1">
         <v>41960</v>
@@ -8595,8 +8589,8 @@
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>19</v>
+      <c r="A195">
+        <v>13</v>
       </c>
       <c r="B195" s="1">
         <v>42027</v>
@@ -8636,8 +8630,8 @@
       </c>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>19</v>
+      <c r="A196">
+        <v>13</v>
       </c>
       <c r="B196" s="1">
         <v>42089</v>
@@ -8677,8 +8671,8 @@
       </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>19</v>
+      <c r="A197">
+        <v>13</v>
       </c>
       <c r="B197" s="1">
         <v>42111</v>
@@ -8718,8 +8712,8 @@
       </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>19</v>
+      <c r="A198">
+        <v>13</v>
       </c>
       <c r="B198" s="1">
         <v>42127</v>
@@ -8759,8 +8753,8 @@
       </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>19</v>
+      <c r="A199">
+        <v>13</v>
       </c>
       <c r="B199" s="1">
         <v>42153</v>
@@ -8800,8 +8794,8 @@
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>19</v>
+      <c r="A200">
+        <v>13</v>
       </c>
       <c r="B200" s="1">
         <v>42180</v>
@@ -8841,8 +8835,8 @@
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>19</v>
+      <c r="A201">
+        <v>13</v>
       </c>
       <c r="B201" s="1">
         <v>42193</v>
@@ -8882,8 +8876,8 @@
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>19</v>
+      <c r="A202">
+        <v>13</v>
       </c>
       <c r="B202" s="1">
         <v>42217</v>
@@ -8923,8 +8917,8 @@
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>19</v>
+      <c r="A203">
+        <v>13</v>
       </c>
       <c r="B203" s="1">
         <v>42221</v>
@@ -8964,8 +8958,8 @@
       </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>19</v>
+      <c r="A204">
+        <v>13</v>
       </c>
       <c r="B204" s="1">
         <v>42228</v>
@@ -9005,8 +8999,8 @@
       </c>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>19</v>
+      <c r="A205">
+        <v>13</v>
       </c>
       <c r="B205" s="1">
         <v>42243</v>
@@ -9046,8 +9040,8 @@
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>19</v>
+      <c r="A206">
+        <v>13</v>
       </c>
       <c r="B206" s="1">
         <v>42265</v>
@@ -9087,8 +9081,8 @@
       </c>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>19</v>
+      <c r="A207">
+        <v>13</v>
       </c>
       <c r="B207" s="1">
         <v>42279</v>
@@ -9128,8 +9122,8 @@
       </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>19</v>
+      <c r="A208">
+        <v>13</v>
       </c>
       <c r="B208" s="1">
         <v>42291</v>
@@ -9169,8 +9163,8 @@
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>19</v>
+      <c r="A209">
+        <v>13</v>
       </c>
       <c r="B209" s="1">
         <v>42303</v>
@@ -9210,16 +9204,16 @@
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>19</v>
+      <c r="A210">
+        <v>13</v>
       </c>
       <c r="B210" s="1">
         <v>42324</v>
       </c>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>19</v>
+      <c r="A211">
+        <v>13</v>
       </c>
       <c r="B211" s="1">
         <v>42325</v>
@@ -9259,8 +9253,8 @@
       </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>19</v>
+      <c r="A212">
+        <v>13</v>
       </c>
       <c r="B212" s="1">
         <v>42389</v>
@@ -9300,8 +9294,8 @@
       </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>19</v>
+      <c r="A213">
+        <v>13</v>
       </c>
       <c r="B213" s="1">
         <v>42403</v>
@@ -9341,8 +9335,8 @@
       </c>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>19</v>
+      <c r="A214">
+        <v>13</v>
       </c>
       <c r="B214" s="1">
         <v>42412</v>
@@ -9382,8 +9376,8 @@
       </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>19</v>
+      <c r="A215">
+        <v>13</v>
       </c>
       <c r="B215" s="1">
         <v>42450</v>
@@ -9423,8 +9417,8 @@
       </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>19</v>
+      <c r="A216">
+        <v>13</v>
       </c>
       <c r="B216" s="1">
         <v>42465</v>
@@ -9464,8 +9458,8 @@
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>19</v>
+      <c r="A217">
+        <v>13</v>
       </c>
       <c r="B217" s="1">
         <v>42475</v>
@@ -9505,8 +9499,8 @@
       </c>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>19</v>
+      <c r="A218">
+        <v>13</v>
       </c>
       <c r="B218" s="1">
         <v>42516</v>
@@ -9546,8 +9540,8 @@
       </c>
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>19</v>
+      <c r="A219">
+        <v>13</v>
       </c>
       <c r="B219" s="1">
         <v>42537</v>
@@ -9587,8 +9581,8 @@
       </c>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>19</v>
+      <c r="A220">
+        <v>13</v>
       </c>
       <c r="B220" s="1">
         <v>42558</v>
@@ -9628,8 +9622,8 @@
       </c>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>19</v>
+      <c r="A221">
+        <v>13</v>
       </c>
       <c r="B221" s="1">
         <v>42578</v>
@@ -9669,8 +9663,8 @@
       </c>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>19</v>
+      <c r="A222">
+        <v>13</v>
       </c>
       <c r="B222" s="1">
         <v>42583</v>
@@ -9710,8 +9704,8 @@
       </c>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>19</v>
+      <c r="A223">
+        <v>13</v>
       </c>
       <c r="B223" s="1">
         <v>42591</v>
@@ -9751,8 +9745,8 @@
       </c>
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>19</v>
+      <c r="A224">
+        <v>13</v>
       </c>
       <c r="B224" s="1">
         <v>42598</v>
@@ -9792,8 +9786,8 @@
       </c>
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>19</v>
+      <c r="A225">
+        <v>13</v>
       </c>
       <c r="B225" s="1">
         <v>42640</v>
@@ -9833,8 +9827,8 @@
       </c>
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>19</v>
+      <c r="A226">
+        <v>13</v>
       </c>
       <c r="B226" s="1">
         <v>42662</v>
@@ -9874,8 +9868,8 @@
       </c>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>19</v>
+      <c r="A227">
+        <v>13</v>
       </c>
       <c r="B227" s="1">
         <v>42676</v>
@@ -9915,8 +9909,8 @@
       </c>
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>19</v>
+      <c r="A228">
+        <v>13</v>
       </c>
       <c r="B228" s="1">
         <v>42689</v>
@@ -9956,8 +9950,8 @@
       </c>
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>19</v>
+      <c r="A229">
+        <v>13</v>
       </c>
       <c r="B229" s="1">
         <v>42726</v>
@@ -9997,8 +9991,8 @@
       </c>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>19</v>
+      <c r="A230">
+        <v>13</v>
       </c>
       <c r="B230" s="1">
         <v>42748</v>
@@ -10038,8 +10032,8 @@
       </c>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>19</v>
+      <c r="A231">
+        <v>13</v>
       </c>
       <c r="B231" s="1">
         <v>42762</v>
@@ -10079,8 +10073,8 @@
       </c>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>19</v>
+      <c r="A232">
+        <v>13</v>
       </c>
       <c r="B232" s="1">
         <v>42783</v>
@@ -10120,8 +10114,8 @@
       </c>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>19</v>
+      <c r="A233">
+        <v>13</v>
       </c>
       <c r="B233" s="1">
         <v>42798</v>
@@ -10161,8 +10155,8 @@
       </c>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>19</v>
+      <c r="A234">
+        <v>13</v>
       </c>
       <c r="B234" s="1">
         <v>42809</v>
@@ -10202,8 +10196,8 @@
       </c>
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>19</v>
+      <c r="A235">
+        <v>13</v>
       </c>
       <c r="B235" s="1">
         <v>42853</v>
@@ -10243,8 +10237,8 @@
       </c>
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>19</v>
+      <c r="A236">
+        <v>13</v>
       </c>
       <c r="B236" s="1">
         <v>42861</v>
@@ -10284,8 +10278,8 @@
       </c>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>19</v>
+      <c r="A237">
+        <v>13</v>
       </c>
       <c r="B237" s="1">
         <v>42871</v>
@@ -10325,8 +10319,8 @@
       </c>
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>19</v>
+      <c r="A238">
+        <v>13</v>
       </c>
       <c r="B238" s="1">
         <v>42912</v>
@@ -10366,8 +10360,8 @@
       </c>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>19</v>
+      <c r="A239">
+        <v>13</v>
       </c>
       <c r="B239" s="1">
         <v>42936</v>
@@ -10407,8 +10401,8 @@
       </c>
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>19</v>
+      <c r="A240">
+        <v>13</v>
       </c>
       <c r="B240" s="1">
         <v>42978</v>
@@ -10448,8 +10442,8 @@
       </c>
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>19</v>
+      <c r="A241">
+        <v>13</v>
       </c>
       <c r="B241" s="1">
         <v>42997</v>
@@ -10486,8 +10480,8 @@
       </c>
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
-        <v>19</v>
+      <c r="A242">
+        <v>13</v>
       </c>
       <c r="B242" s="1">
         <v>43021</v>
@@ -10527,8 +10521,8 @@
       </c>
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>19</v>
+      <c r="A243">
+        <v>13</v>
       </c>
       <c r="B243" s="1">
         <v>43039</v>
@@ -10568,8 +10562,8 @@
       </c>
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>19</v>
+      <c r="A244">
+        <v>13</v>
       </c>
       <c r="B244" s="1">
         <v>43047</v>
@@ -10609,8 +10603,8 @@
       </c>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>19</v>
+      <c r="A245">
+        <v>13</v>
       </c>
       <c r="B245" s="1">
         <v>43062</v>
@@ -10650,8 +10644,8 @@
       </c>
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>19</v>
+      <c r="A246">
+        <v>13</v>
       </c>
       <c r="B246" s="1">
         <v>43082</v>
@@ -10691,8 +10685,8 @@
       </c>
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>19</v>
+      <c r="A247">
+        <v>13</v>
       </c>
       <c r="B247" s="1">
         <v>43131</v>
@@ -10732,8 +10726,8 @@
       </c>
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>19</v>
+      <c r="A248">
+        <v>13</v>
       </c>
       <c r="B248" s="1">
         <v>43141</v>
@@ -10773,8 +10767,8 @@
       </c>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>19</v>
+      <c r="A249">
+        <v>13</v>
       </c>
       <c r="B249" s="1">
         <v>43150</v>
@@ -10814,8 +10808,8 @@
       </c>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>19</v>
+      <c r="A250">
+        <v>13</v>
       </c>
       <c r="B250" s="1">
         <v>43167</v>
@@ -10855,8 +10849,8 @@
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>19</v>
+      <c r="A251">
+        <v>13</v>
       </c>
       <c r="B251" s="1">
         <v>43171</v>
@@ -10893,8 +10887,8 @@
       </c>
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>19</v>
+      <c r="A252">
+        <v>13</v>
       </c>
       <c r="B252" s="1">
         <v>43173</v>
@@ -10934,8 +10928,8 @@
       </c>
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>19</v>
+      <c r="A253">
+        <v>13</v>
       </c>
       <c r="B253" s="1">
         <v>43187</v>
@@ -10975,8 +10969,8 @@
       </c>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
-        <v>19</v>
+      <c r="A254">
+        <v>13</v>
       </c>
       <c r="B254" s="1">
         <v>43209</v>
@@ -11016,8 +11010,8 @@
       </c>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
-        <v>19</v>
+      <c r="A255">
+        <v>13</v>
       </c>
       <c r="B255" s="1">
         <v>43221</v>
@@ -11057,8 +11051,8 @@
       </c>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>19</v>
+      <c r="A256">
+        <v>13</v>
       </c>
       <c r="B256" s="1">
         <v>43251</v>
@@ -11098,8 +11092,8 @@
       </c>
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>19</v>
+      <c r="A257">
+        <v>13</v>
       </c>
       <c r="B257" s="1">
         <v>43270</v>
@@ -11139,8 +11133,8 @@
       </c>
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>19</v>
+      <c r="A258">
+        <v>13</v>
       </c>
       <c r="B258" s="1">
         <v>43284</v>
@@ -11168,8 +11162,8 @@
       </c>
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>19</v>
+      <c r="A259">
+        <v>13</v>
       </c>
       <c r="B259" s="1">
         <v>43290</v>
@@ -11209,8 +11203,8 @@
       </c>
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>19</v>
+      <c r="A260">
+        <v>13</v>
       </c>
       <c r="B260" s="1">
         <v>43334</v>
@@ -11250,8 +11244,8 @@
       </c>
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>19</v>
+      <c r="A261">
+        <v>13</v>
       </c>
       <c r="B261" s="1">
         <v>43378</v>
@@ -11291,8 +11285,8 @@
       </c>
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
-        <v>19</v>
+      <c r="A262">
+        <v>13</v>
       </c>
       <c r="B262" s="1">
         <v>43392</v>
@@ -11332,8 +11326,8 @@
       </c>
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
-        <v>19</v>
+      <c r="A263">
+        <v>13</v>
       </c>
       <c r="B263" s="1">
         <v>43420</v>
@@ -11373,8 +11367,8 @@
       </c>
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>19</v>
+      <c r="A264">
+        <v>13</v>
       </c>
       <c r="B264" s="1">
         <v>43441</v>
@@ -11414,8 +11408,8 @@
       </c>
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>19</v>
+      <c r="A265">
+        <v>13</v>
       </c>
       <c r="B265" s="1">
         <v>43455</v>
@@ -11455,8 +11449,8 @@
       </c>
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>19</v>
+      <c r="A266">
+        <v>13</v>
       </c>
       <c r="B266" s="1">
         <v>43472</v>
@@ -11496,8 +11490,8 @@
       </c>
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>19</v>
+      <c r="A267">
+        <v>13</v>
       </c>
       <c r="B267" s="1">
         <v>43483</v>
@@ -11537,8 +11531,8 @@
       </c>
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
-        <v>19</v>
+      <c r="A268">
+        <v>13</v>
       </c>
       <c r="B268" s="1">
         <v>43517</v>
@@ -11578,8 +11572,8 @@
       </c>
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
-        <v>19</v>
+      <c r="A269">
+        <v>13</v>
       </c>
       <c r="B269" s="1">
         <v>43549</v>
@@ -11619,8 +11613,8 @@
       </c>
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>19</v>
+      <c r="A270">
+        <v>13</v>
       </c>
       <c r="B270" s="1">
         <v>43585</v>
@@ -11660,8 +11654,8 @@
       </c>
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>19</v>
+      <c r="A271">
+        <v>13</v>
       </c>
       <c r="B271" s="1">
         <v>43609</v>
@@ -11701,8 +11695,8 @@
       </c>
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>19</v>
+      <c r="A272">
+        <v>13</v>
       </c>
       <c r="B272" s="1">
         <v>43625</v>
@@ -11742,8 +11736,8 @@
       </c>
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>19</v>
+      <c r="A273">
+        <v>13</v>
       </c>
       <c r="B273" s="1">
         <v>43672</v>
@@ -11783,8 +11777,8 @@
       </c>
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
-        <v>19</v>
+      <c r="A274">
+        <v>13</v>
       </c>
       <c r="B274" s="1">
         <v>43680</v>
@@ -11824,8 +11818,8 @@
       </c>
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
-        <v>19</v>
+      <c r="A275">
+        <v>13</v>
       </c>
       <c r="B275" s="1">
         <v>43696</v>
@@ -11865,8 +11859,8 @@
       </c>
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>19</v>
+      <c r="A276">
+        <v>13</v>
       </c>
       <c r="B276" s="1">
         <v>43738</v>
@@ -11906,8 +11900,8 @@
       </c>
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>19</v>
+      <c r="A277">
+        <v>13</v>
       </c>
       <c r="B277" s="1">
         <v>43742</v>
@@ -11947,8 +11941,8 @@
       </c>
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>19</v>
+      <c r="A278">
+        <v>13</v>
       </c>
       <c r="B278" s="1">
         <v>43749</v>
@@ -11988,8 +11982,8 @@
       </c>
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>19</v>
+      <c r="A279">
+        <v>13</v>
       </c>
       <c r="B279" s="1">
         <v>43775</v>
@@ -12029,8 +12023,8 @@
       </c>
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>19</v>
+      <c r="A280">
+        <v>13</v>
       </c>
       <c r="B280" s="1">
         <v>43797</v>
@@ -12070,8 +12064,8 @@
       </c>
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>19</v>
+      <c r="A281">
+        <v>13</v>
       </c>
       <c r="B281" s="1">
         <v>43860</v>
@@ -12111,8 +12105,8 @@
       </c>
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>19</v>
+      <c r="A282">
+        <v>13</v>
       </c>
       <c r="B282" s="1">
         <v>43867</v>
@@ -12152,8 +12146,8 @@
       </c>
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>19</v>
+      <c r="A283">
+        <v>13</v>
       </c>
       <c r="B283" s="1">
         <v>43879</v>
@@ -12193,16 +12187,16 @@
       </c>
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>19</v>
+      <c r="A284">
+        <v>13</v>
       </c>
       <c r="B284" s="1">
         <v>43944</v>
       </c>
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>19</v>
+      <c r="A285">
+        <v>13</v>
       </c>
       <c r="B285" s="1">
         <v>43966</v>
@@ -12242,8 +12236,8 @@
       </c>
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>19</v>
+      <c r="A286">
+        <v>13</v>
       </c>
       <c r="B286" s="1">
         <v>44005</v>
@@ -12283,8 +12277,8 @@
       </c>
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>19</v>
+      <c r="A287">
+        <v>13</v>
       </c>
       <c r="B287" s="1">
         <v>44020</v>
@@ -12324,8 +12318,8 @@
       </c>
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>19</v>
+      <c r="A288">
+        <v>13</v>
       </c>
       <c r="B288" s="1">
         <v>44027</v>
@@ -12365,8 +12359,8 @@
       </c>
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>19</v>
+      <c r="A289">
+        <v>13</v>
       </c>
       <c r="B289" s="1">
         <v>44053</v>
@@ -12406,8 +12400,8 @@
       </c>
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>19</v>
+      <c r="A290">
+        <v>13</v>
       </c>
       <c r="B290" s="1">
         <v>44071</v>
@@ -12447,8 +12441,8 @@
       </c>
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>19</v>
+      <c r="A291">
+        <v>13</v>
       </c>
       <c r="B291" s="1">
         <v>44075</v>
@@ -12488,8 +12482,8 @@
       </c>
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>19</v>
+      <c r="A292">
+        <v>13</v>
       </c>
       <c r="B292" s="1">
         <v>44088</v>
@@ -12529,8 +12523,8 @@
       </c>
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>19</v>
+      <c r="A293">
+        <v>13</v>
       </c>
       <c r="B293" s="1">
         <v>44133</v>
@@ -12570,8 +12564,8 @@
       </c>
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>19</v>
+      <c r="A294">
+        <v>13</v>
       </c>
       <c r="B294" s="1">
         <v>44138</v>
@@ -12611,8 +12605,8 @@
       </c>
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>20</v>
+      <c r="A295">
+        <v>11</v>
       </c>
       <c r="B295" s="1">
         <v>32903</v>
@@ -12643,8 +12637,8 @@
       </c>
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>20</v>
+      <c r="A296">
+        <v>11</v>
       </c>
       <c r="B296" s="1">
         <v>32931</v>
@@ -12678,8 +12672,8 @@
       </c>
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>20</v>
+      <c r="A297">
+        <v>11</v>
       </c>
       <c r="B297" s="1">
         <v>32967</v>
@@ -12710,8 +12704,8 @@
       </c>
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>20</v>
+      <c r="A298">
+        <v>11</v>
       </c>
       <c r="B298" s="1">
         <v>32995</v>
@@ -12745,8 +12739,8 @@
       </c>
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>20</v>
+      <c r="A299">
+        <v>11</v>
       </c>
       <c r="B299" s="1">
         <v>33030</v>
@@ -12777,8 +12771,8 @@
       </c>
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>20</v>
+      <c r="A300">
+        <v>11</v>
       </c>
       <c r="B300" s="1">
         <v>33058</v>
@@ -12809,8 +12803,8 @@
       </c>
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>20</v>
+      <c r="A301">
+        <v>11</v>
       </c>
       <c r="B301" s="1">
         <v>33108</v>
@@ -12841,8 +12835,8 @@
       </c>
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>20</v>
+      <c r="A302">
+        <v>11</v>
       </c>
       <c r="B302" s="1">
         <v>33144</v>
@@ -12873,8 +12867,8 @@
       </c>
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>20</v>
+      <c r="A303">
+        <v>11</v>
       </c>
       <c r="B303" s="1">
         <v>33169</v>
@@ -12905,8 +12899,8 @@
       </c>
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>20</v>
+      <c r="A304">
+        <v>11</v>
       </c>
       <c r="B304" s="1">
         <v>33192</v>
@@ -12937,8 +12931,8 @@
       </c>
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>20</v>
+      <c r="A305">
+        <v>11</v>
       </c>
       <c r="B305" s="1">
         <v>33217</v>
@@ -12969,8 +12963,8 @@
       </c>
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>20</v>
+      <c r="A306">
+        <v>11</v>
       </c>
       <c r="B306" s="1">
         <v>33247</v>
@@ -13001,8 +12995,8 @@
       </c>
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>20</v>
+      <c r="A307">
+        <v>11</v>
       </c>
       <c r="B307" s="1">
         <v>33304</v>
@@ -13033,8 +13027,8 @@
       </c>
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
-        <v>20</v>
+      <c r="A308">
+        <v>11</v>
       </c>
       <c r="B308" s="1">
         <v>33329</v>
@@ -13065,8 +13059,8 @@
       </c>
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
-        <v>20</v>
+      <c r="A309">
+        <v>11</v>
       </c>
       <c r="B309" s="1">
         <v>33360</v>
@@ -13079,8 +13073,8 @@
       </c>
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A310" t="s">
-        <v>20</v>
+      <c r="A310">
+        <v>11</v>
       </c>
       <c r="B310" s="1">
         <v>33388</v>
@@ -13117,8 +13111,8 @@
       </c>
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>20</v>
+      <c r="A311">
+        <v>11</v>
       </c>
       <c r="B311" s="1">
         <v>33402</v>
@@ -13155,8 +13149,8 @@
       </c>
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>20</v>
+      <c r="A312">
+        <v>11</v>
       </c>
       <c r="B312" s="1">
         <v>33431</v>
@@ -13196,8 +13190,8 @@
       </c>
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>20</v>
+      <c r="A313">
+        <v>11</v>
       </c>
       <c r="B313" s="1">
         <v>33459</v>
@@ -13237,8 +13231,8 @@
       </c>
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>20</v>
+      <c r="A314">
+        <v>11</v>
       </c>
       <c r="B314" s="1">
         <v>33473</v>
@@ -13278,8 +13272,8 @@
       </c>
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>20</v>
+      <c r="A315">
+        <v>11</v>
       </c>
       <c r="B315" s="1">
         <v>33497</v>
@@ -13316,8 +13310,8 @@
       </c>
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>20</v>
+      <c r="A316">
+        <v>11</v>
       </c>
       <c r="B316" s="1">
         <v>33515</v>
@@ -13357,8 +13351,8 @@
       </c>
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
-        <v>20</v>
+      <c r="A317">
+        <v>11</v>
       </c>
       <c r="B317" s="1">
         <v>33528</v>
@@ -13395,8 +13389,8 @@
       </c>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>20</v>
+      <c r="A318">
+        <v>11</v>
       </c>
       <c r="B318" s="1">
         <v>33543</v>
@@ -13436,8 +13430,8 @@
       </c>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
-        <v>20</v>
+      <c r="A319">
+        <v>11</v>
       </c>
       <c r="B319" s="1">
         <v>33555</v>
@@ -13474,8 +13468,8 @@
       </c>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
-        <v>20</v>
+      <c r="A320">
+        <v>11</v>
       </c>
       <c r="B320" s="1">
         <v>33568</v>
@@ -13512,8 +13506,8 @@
       </c>
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>20</v>
+      <c r="A321">
+        <v>11</v>
       </c>
       <c r="B321" s="1">
         <v>33581</v>
@@ -13550,8 +13544,8 @@
       </c>
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
-        <v>20</v>
+      <c r="A322">
+        <v>11</v>
       </c>
       <c r="B322" s="1">
         <v>33595</v>
@@ -13591,8 +13585,8 @@
       </c>
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
-        <v>20</v>
+      <c r="A323">
+        <v>11</v>
       </c>
       <c r="B323" s="1">
         <v>33611</v>
@@ -13632,8 +13626,8 @@
       </c>
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A324" t="s">
-        <v>20</v>
+      <c r="A324">
+        <v>11</v>
       </c>
       <c r="B324" s="1">
         <v>33626</v>
@@ -13673,8 +13667,8 @@
       </c>
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A325" t="s">
-        <v>20</v>
+      <c r="A325">
+        <v>11</v>
       </c>
       <c r="B325" s="1">
         <v>33641</v>
@@ -13711,8 +13705,8 @@
       </c>
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A326" t="s">
-        <v>20</v>
+      <c r="A326">
+        <v>11</v>
       </c>
       <c r="B326" s="1">
         <v>33681</v>
@@ -13752,8 +13746,8 @@
       </c>
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A327" t="s">
-        <v>20</v>
+      <c r="A327">
+        <v>11</v>
       </c>
       <c r="B327" s="1">
         <v>33696</v>
@@ -13793,8 +13787,8 @@
       </c>
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A328" t="s">
-        <v>20</v>
+      <c r="A328">
+        <v>11</v>
       </c>
       <c r="B328" s="1">
         <v>33709</v>
@@ -13834,8 +13828,8 @@
       </c>
     </row>
     <row r="329" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A329" t="s">
-        <v>20</v>
+      <c r="A329">
+        <v>11</v>
       </c>
       <c r="B329" s="1">
         <v>33725</v>
@@ -13875,8 +13869,8 @@
       </c>
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A330" t="s">
-        <v>20</v>
+      <c r="A330">
+        <v>11</v>
       </c>
       <c r="B330" s="1">
         <v>33735</v>
@@ -13916,8 +13910,8 @@
       </c>
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A331" t="s">
-        <v>20</v>
+      <c r="A331">
+        <v>11</v>
       </c>
       <c r="B331" s="1">
         <v>33750</v>
@@ -13957,8 +13951,8 @@
       </c>
     </row>
     <row r="332" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
-        <v>20</v>
+      <c r="A332">
+        <v>11</v>
       </c>
       <c r="B332" s="1">
         <v>33765</v>
@@ -13995,8 +13989,8 @@
       </c>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
-        <v>20</v>
+      <c r="A333">
+        <v>11</v>
       </c>
       <c r="B333" s="1">
         <v>33778</v>
@@ -14036,8 +14030,8 @@
       </c>
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A334" t="s">
-        <v>20</v>
+      <c r="A334">
+        <v>11</v>
       </c>
       <c r="B334" s="1">
         <v>33808</v>
@@ -14071,8 +14065,8 @@
       </c>
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A335" t="s">
-        <v>20</v>
+      <c r="A335">
+        <v>11</v>
       </c>
       <c r="B335" s="1">
         <v>33822</v>
@@ -14112,8 +14106,8 @@
       </c>
     </row>
     <row r="336" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
-        <v>20</v>
+      <c r="A336">
+        <v>11</v>
       </c>
       <c r="B336" s="1">
         <v>33833</v>
@@ -14147,8 +14141,8 @@
       </c>
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A337" t="s">
-        <v>20</v>
+      <c r="A337">
+        <v>11</v>
       </c>
       <c r="B337" s="1">
         <v>33849</v>
@@ -14188,8 +14182,8 @@
       </c>
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A338" t="s">
-        <v>20</v>
+      <c r="A338">
+        <v>11</v>
       </c>
       <c r="B338" s="1">
         <v>33862</v>
@@ -14226,8 +14220,8 @@
       </c>
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
-        <v>20</v>
+      <c r="A339">
+        <v>11</v>
       </c>
       <c r="B339" s="1">
         <v>33879</v>
@@ -14267,8 +14261,8 @@
       </c>
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
-        <v>20</v>
+      <c r="A340">
+        <v>11</v>
       </c>
       <c r="B340" s="1">
         <v>33889</v>
@@ -14302,8 +14296,8 @@
       </c>
     </row>
     <row r="341" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A341" t="s">
-        <v>20</v>
+      <c r="A341">
+        <v>11</v>
       </c>
       <c r="B341" s="1">
         <v>33903</v>
@@ -14343,8 +14337,8 @@
       </c>
     </row>
     <row r="342" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
-        <v>20</v>
+      <c r="A342">
+        <v>11</v>
       </c>
       <c r="B342" s="1">
         <v>33918</v>
@@ -14384,8 +14378,8 @@
       </c>
     </row>
     <row r="343" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>20</v>
+      <c r="A343">
+        <v>11</v>
       </c>
       <c r="B343" s="1">
         <v>33931</v>
@@ -14425,8 +14419,8 @@
       </c>
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A344" t="s">
-        <v>20</v>
+      <c r="A344">
+        <v>11</v>
       </c>
       <c r="B344" s="1">
         <v>33945</v>
@@ -14460,8 +14454,8 @@
       </c>
     </row>
     <row r="345" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A345" t="s">
-        <v>20</v>
+      <c r="A345">
+        <v>11</v>
       </c>
       <c r="B345" s="1">
         <v>33959</v>
@@ -14501,8 +14495,8 @@
       </c>
     </row>
     <row r="346" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A346" t="s">
-        <v>20</v>
+      <c r="A346">
+        <v>11</v>
       </c>
       <c r="B346" s="1">
         <v>33974</v>
@@ -14542,8 +14536,8 @@
       </c>
     </row>
     <row r="347" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
-        <v>20</v>
+      <c r="A347">
+        <v>11</v>
       </c>
       <c r="B347" s="1">
         <v>33989</v>
@@ -14583,8 +14577,8 @@
       </c>
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
-        <v>20</v>
+      <c r="A348">
+        <v>11</v>
       </c>
       <c r="B348" s="1">
         <v>34001</v>
@@ -14624,8 +14618,8 @@
       </c>
     </row>
     <row r="349" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>20</v>
+      <c r="A349">
+        <v>11</v>
       </c>
       <c r="B349" s="1">
         <v>34015</v>
@@ -14662,8 +14656,8 @@
       </c>
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>20</v>
+      <c r="A350">
+        <v>11</v>
       </c>
       <c r="B350" s="1">
         <v>34029</v>
@@ -14703,8 +14697,8 @@
       </c>
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>20</v>
+      <c r="A351">
+        <v>11</v>
       </c>
       <c r="B351" s="1">
         <v>34043</v>
@@ -14744,8 +14738,8 @@
       </c>
     </row>
     <row r="352" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>20</v>
+      <c r="A352">
+        <v>11</v>
       </c>
       <c r="B352" s="1">
         <v>34073</v>
@@ -14785,8 +14779,8 @@
       </c>
     </row>
     <row r="353" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>20</v>
+      <c r="A353">
+        <v>11</v>
       </c>
       <c r="B353" s="1">
         <v>34087</v>
@@ -14826,8 +14820,8 @@
       </c>
     </row>
     <row r="354" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>20</v>
+      <c r="A354">
+        <v>11</v>
       </c>
       <c r="B354" s="1">
         <v>34101</v>
@@ -14867,8 +14861,8 @@
       </c>
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>20</v>
+      <c r="A355">
+        <v>11</v>
       </c>
       <c r="B355" s="1">
         <v>34115</v>
@@ -14908,8 +14902,8 @@
       </c>
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>20</v>
+      <c r="A356">
+        <v>11</v>
       </c>
       <c r="B356" s="1">
         <v>34130</v>
@@ -14949,8 +14943,8 @@
       </c>
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
-        <v>20</v>
+      <c r="A357">
+        <v>11</v>
       </c>
       <c r="B357" s="1">
         <v>34144</v>
@@ -14990,8 +14984,8 @@
       </c>
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
-        <v>20</v>
+      <c r="A358">
+        <v>11</v>
       </c>
       <c r="B358" s="1">
         <v>34158</v>
@@ -15028,8 +15022,8 @@
       </c>
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>20</v>
+      <c r="A359">
+        <v>11</v>
       </c>
       <c r="B359" s="1">
         <v>34173</v>
@@ -15069,8 +15063,8 @@
       </c>
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>20</v>
+      <c r="A360">
+        <v>11</v>
       </c>
       <c r="B360" s="1">
         <v>34185</v>
@@ -15110,8 +15104,8 @@
       </c>
     </row>
     <row r="361" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
-        <v>20</v>
+      <c r="A361">
+        <v>11</v>
       </c>
       <c r="B361" s="1">
         <v>34199</v>
@@ -15151,8 +15145,8 @@
       </c>
     </row>
     <row r="362" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
-        <v>20</v>
+      <c r="A362">
+        <v>11</v>
       </c>
       <c r="B362" s="1">
         <v>34213</v>
@@ -15192,8 +15186,8 @@
       </c>
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
-        <v>20</v>
+      <c r="A363">
+        <v>11</v>
       </c>
       <c r="B363" s="1">
         <v>34227</v>
@@ -15233,8 +15227,8 @@
       </c>
     </row>
     <row r="364" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
-        <v>20</v>
+      <c r="A364">
+        <v>11</v>
       </c>
       <c r="B364" s="1">
         <v>34241</v>
@@ -15274,8 +15268,8 @@
       </c>
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
-        <v>20</v>
+      <c r="A365">
+        <v>11</v>
       </c>
       <c r="B365" s="1">
         <v>34255</v>
@@ -15315,8 +15309,8 @@
       </c>
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
-        <v>20</v>
+      <c r="A366">
+        <v>11</v>
       </c>
       <c r="B366" s="1">
         <v>34269</v>
@@ -15356,8 +15350,8 @@
       </c>
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A367" t="s">
-        <v>20</v>
+      <c r="A367">
+        <v>11</v>
       </c>
       <c r="B367" s="1">
         <v>34283</v>
@@ -15397,8 +15391,8 @@
       </c>
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A368" t="s">
-        <v>20</v>
+      <c r="A368">
+        <v>11</v>
       </c>
       <c r="B368" s="1">
         <v>34297</v>
@@ -15438,8 +15432,8 @@
       </c>
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A369" t="s">
-        <v>20</v>
+      <c r="A369">
+        <v>11</v>
       </c>
       <c r="B369" s="1">
         <v>34311</v>
@@ -15479,8 +15473,8 @@
       </c>
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A370" t="s">
-        <v>20</v>
+      <c r="A370">
+        <v>11</v>
       </c>
       <c r="B370" s="1">
         <v>34339</v>
@@ -15520,8 +15514,8 @@
       </c>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A371" t="s">
-        <v>20</v>
+      <c r="A371">
+        <v>11</v>
       </c>
       <c r="B371" s="1">
         <v>34353</v>
@@ -15561,8 +15555,8 @@
       </c>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A372" t="s">
-        <v>20</v>
+      <c r="A372">
+        <v>11</v>
       </c>
       <c r="B372" s="1">
         <v>34381</v>
@@ -15602,8 +15596,8 @@
       </c>
     </row>
     <row r="373" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A373" t="s">
-        <v>20</v>
+      <c r="A373">
+        <v>11</v>
       </c>
       <c r="B373" s="1">
         <v>34394</v>
@@ -15643,8 +15637,8 @@
       </c>
     </row>
     <row r="374" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A374" t="s">
-        <v>20</v>
+      <c r="A374">
+        <v>11</v>
       </c>
       <c r="B374" s="1">
         <v>34408</v>
@@ -15684,8 +15678,8 @@
       </c>
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A375" t="s">
-        <v>20</v>
+      <c r="A375">
+        <v>11</v>
       </c>
       <c r="B375" s="1">
         <v>34423</v>
@@ -15725,8 +15719,8 @@
       </c>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A376" t="s">
-        <v>20</v>
+      <c r="A376">
+        <v>11</v>
       </c>
       <c r="B376" s="1">
         <v>34436</v>
@@ -15766,8 +15760,8 @@
       </c>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A377" t="s">
-        <v>20</v>
+      <c r="A377">
+        <v>11</v>
       </c>
       <c r="B377" s="1">
         <v>34450</v>
@@ -15807,8 +15801,8 @@
       </c>
     </row>
     <row r="378" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A378" t="s">
-        <v>20</v>
+      <c r="A378">
+        <v>11</v>
       </c>
       <c r="B378" s="1">
         <v>34463</v>
@@ -15848,8 +15842,8 @@
       </c>
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A379" t="s">
-        <v>20</v>
+      <c r="A379">
+        <v>11</v>
       </c>
       <c r="B379" s="1">
         <v>34480</v>
@@ -15889,8 +15883,8 @@
       </c>
     </row>
     <row r="380" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A380" t="s">
-        <v>20</v>
+      <c r="A380">
+        <v>11</v>
       </c>
       <c r="B380" s="1">
         <v>34491</v>
@@ -15930,8 +15924,8 @@
       </c>
     </row>
     <row r="381" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A381" t="s">
-        <v>20</v>
+      <c r="A381">
+        <v>11</v>
       </c>
       <c r="B381" s="1">
         <v>34505</v>
@@ -15971,8 +15965,8 @@
       </c>
     </row>
     <row r="382" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A382" t="s">
-        <v>20</v>
+      <c r="A382">
+        <v>11</v>
       </c>
       <c r="B382" s="1">
         <v>34522</v>
@@ -16000,8 +15994,8 @@
       </c>
     </row>
     <row r="383" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A383" t="s">
-        <v>20</v>
+      <c r="A383">
+        <v>11</v>
       </c>
       <c r="B383" s="1">
         <v>34702</v>
@@ -16026,8 +16020,8 @@
       </c>
     </row>
     <row r="384" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A384" t="s">
-        <v>20</v>
+      <c r="A384">
+        <v>11</v>
       </c>
       <c r="B384" s="1">
         <v>34716</v>
@@ -16058,8 +16052,8 @@
       </c>
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A385" t="s">
-        <v>20</v>
+      <c r="A385">
+        <v>11</v>
       </c>
       <c r="B385" s="1">
         <v>34730</v>
@@ -16093,8 +16087,8 @@
       </c>
     </row>
     <row r="386" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A386" t="s">
-        <v>20</v>
+      <c r="A386">
+        <v>11</v>
       </c>
       <c r="B386" s="1">
         <v>34744</v>
@@ -16128,8 +16122,8 @@
       </c>
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A387" t="s">
-        <v>20</v>
+      <c r="A387">
+        <v>11</v>
       </c>
       <c r="B387" s="1">
         <v>34758</v>
@@ -16163,8 +16157,8 @@
       </c>
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A388" t="s">
-        <v>20</v>
+      <c r="A388">
+        <v>11</v>
       </c>
       <c r="B388" s="1">
         <v>34772</v>
@@ -16198,8 +16192,8 @@
       </c>
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A389" t="s">
-        <v>20</v>
+      <c r="A389">
+        <v>11</v>
       </c>
       <c r="B389" s="1">
         <v>34786</v>
@@ -16233,8 +16227,8 @@
       </c>
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A390" t="s">
-        <v>20</v>
+      <c r="A390">
+        <v>11</v>
       </c>
       <c r="B390" s="1">
         <v>34800</v>
@@ -16268,8 +16262,8 @@
       </c>
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A391" t="s">
-        <v>20</v>
+      <c r="A391">
+        <v>11</v>
       </c>
       <c r="B391" s="1">
         <v>34815</v>
@@ -16303,8 +16297,8 @@
       </c>
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A392" t="s">
-        <v>20</v>
+      <c r="A392">
+        <v>11</v>
       </c>
       <c r="B392" s="1">
         <v>34828</v>
@@ -16338,8 +16332,8 @@
       </c>
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A393" t="s">
-        <v>20</v>
+      <c r="A393">
+        <v>11</v>
       </c>
       <c r="B393" s="1">
         <v>34842</v>
@@ -16373,8 +16367,8 @@
       </c>
     </row>
     <row r="394" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A394" t="s">
-        <v>20</v>
+      <c r="A394">
+        <v>11</v>
       </c>
       <c r="B394" s="1">
         <v>34856</v>
@@ -16408,8 +16402,8 @@
       </c>
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A395" t="s">
-        <v>20</v>
+      <c r="A395">
+        <v>11</v>
       </c>
       <c r="B395" s="1">
         <v>34870</v>
@@ -16443,8 +16437,8 @@
       </c>
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A396" t="s">
-        <v>20</v>
+      <c r="A396">
+        <v>11</v>
       </c>
       <c r="B396" s="1">
         <v>34884</v>
@@ -16478,8 +16472,8 @@
       </c>
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A397" t="s">
-        <v>20</v>
+      <c r="A397">
+        <v>11</v>
       </c>
       <c r="B397" s="1">
         <v>34898</v>
@@ -16513,8 +16507,8 @@
       </c>
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A398" t="s">
-        <v>20</v>
+      <c r="A398">
+        <v>11</v>
       </c>
       <c r="B398" s="1">
         <v>34912</v>
@@ -16548,8 +16542,8 @@
       </c>
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A399" t="s">
-        <v>20</v>
+      <c r="A399">
+        <v>11</v>
       </c>
       <c r="B399" s="1">
         <v>34926</v>
@@ -16583,8 +16577,8 @@
       </c>
     </row>
     <row r="400" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A400" t="s">
-        <v>20</v>
+      <c r="A400">
+        <v>11</v>
       </c>
       <c r="B400" s="1">
         <v>34940</v>
@@ -16618,8 +16612,8 @@
       </c>
     </row>
     <row r="401" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A401" t="s">
-        <v>20</v>
+      <c r="A401">
+        <v>11</v>
       </c>
       <c r="B401" s="1">
         <v>34982</v>
@@ -16647,8 +16641,8 @@
       </c>
     </row>
     <row r="402" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A402" t="s">
-        <v>20</v>
+      <c r="A402">
+        <v>11</v>
       </c>
       <c r="B402" s="1">
         <v>35024</v>
@@ -16685,8 +16679,8 @@
       </c>
     </row>
     <row r="403" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A403" t="s">
-        <v>20</v>
+      <c r="A403">
+        <v>11</v>
       </c>
       <c r="B403" s="1">
         <v>35038</v>
@@ -16723,8 +16717,8 @@
       </c>
     </row>
     <row r="404" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A404" t="s">
-        <v>20</v>
+      <c r="A404">
+        <v>11</v>
       </c>
       <c r="B404" s="1">
         <v>35080</v>
@@ -16761,8 +16755,8 @@
       </c>
     </row>
     <row r="405" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A405" t="s">
-        <v>20</v>
+      <c r="A405">
+        <v>11</v>
       </c>
       <c r="B405" s="1">
         <v>35108</v>
@@ -16799,8 +16793,8 @@
       </c>
     </row>
     <row r="406" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A406" t="s">
-        <v>20</v>
+      <c r="A406">
+        <v>11</v>
       </c>
       <c r="B406" s="1">
         <v>35136</v>
@@ -16837,8 +16831,8 @@
       </c>
     </row>
     <row r="407" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A407" t="s">
-        <v>20</v>
+      <c r="A407">
+        <v>11</v>
       </c>
       <c r="B407" s="1">
         <v>35165</v>
@@ -16875,8 +16869,8 @@
       </c>
     </row>
     <row r="408" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A408" t="s">
-        <v>20</v>
+      <c r="A408">
+        <v>11</v>
       </c>
       <c r="B408" s="1">
         <v>35192</v>
@@ -16907,8 +16901,8 @@
       </c>
     </row>
     <row r="409" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A409" t="s">
-        <v>20</v>
+      <c r="A409">
+        <v>11</v>
       </c>
       <c r="B409" s="1">
         <v>35206</v>
@@ -16948,8 +16942,8 @@
       </c>
     </row>
     <row r="410" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A410" t="s">
-        <v>20</v>
+      <c r="A410">
+        <v>11</v>
       </c>
       <c r="B410" s="1">
         <v>35234</v>
@@ -16989,8 +16983,8 @@
       </c>
     </row>
     <row r="411" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A411" t="s">
-        <v>20</v>
+      <c r="A411">
+        <v>11</v>
       </c>
       <c r="B411" s="1">
         <v>35262</v>
@@ -17030,8 +17024,8 @@
       </c>
     </row>
     <row r="412" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A412" t="s">
-        <v>20</v>
+      <c r="A412">
+        <v>11</v>
       </c>
       <c r="B412" s="1">
         <v>35291</v>
@@ -17071,8 +17065,8 @@
       </c>
     </row>
     <row r="413" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A413" t="s">
-        <v>20</v>
+      <c r="A413">
+        <v>11</v>
       </c>
       <c r="B413" s="1">
         <v>35310</v>
@@ -17109,8 +17103,8 @@
       </c>
     </row>
     <row r="414" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A414" t="s">
-        <v>20</v>
+      <c r="A414">
+        <v>11</v>
       </c>
       <c r="B414" s="1">
         <v>35320</v>
@@ -17150,8 +17144,8 @@
       </c>
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A415" t="s">
-        <v>20</v>
+      <c r="A415">
+        <v>11</v>
       </c>
       <c r="B415" s="1">
         <v>35346</v>
@@ -17191,8 +17185,8 @@
       </c>
     </row>
     <row r="416" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A416" t="s">
-        <v>20</v>
+      <c r="A416">
+        <v>11</v>
       </c>
       <c r="B416" s="1">
         <v>35375</v>
@@ -17229,8 +17223,8 @@
       </c>
     </row>
     <row r="417" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A417" t="s">
-        <v>20</v>
+      <c r="A417">
+        <v>11</v>
       </c>
       <c r="B417" s="1">
         <v>35383</v>
@@ -17270,8 +17264,8 @@
       </c>
     </row>
     <row r="418" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A418" t="s">
-        <v>20</v>
+      <c r="A418">
+        <v>11</v>
       </c>
       <c r="B418" s="1">
         <v>35410</v>
@@ -17314,8 +17308,8 @@
       </c>
     </row>
     <row r="419" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A419" t="s">
-        <v>20</v>
+      <c r="A419">
+        <v>11</v>
       </c>
       <c r="B419" s="1">
         <v>35444</v>
@@ -17358,8 +17352,8 @@
       </c>
     </row>
     <row r="420" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A420" t="s">
-        <v>20</v>
+      <c r="A420">
+        <v>11</v>
       </c>
       <c r="B420" s="1">
         <v>35461</v>
@@ -17399,8 +17393,8 @@
       </c>
     </row>
     <row r="421" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A421" t="s">
-        <v>20</v>
+      <c r="A421">
+        <v>11</v>
       </c>
       <c r="B421" s="1">
         <v>35473</v>
@@ -17443,8 +17437,8 @@
       </c>
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A422" t="s">
-        <v>20</v>
+      <c r="A422">
+        <v>11</v>
       </c>
       <c r="B422" s="1">
         <v>35502</v>
@@ -17487,8 +17481,8 @@
       </c>
     </row>
     <row r="423" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A423" t="s">
-        <v>20</v>
+      <c r="A423">
+        <v>11</v>
       </c>
       <c r="B423" s="1">
         <v>35534</v>
@@ -17531,8 +17525,8 @@
       </c>
     </row>
     <row r="424" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A424" t="s">
-        <v>20</v>
+      <c r="A424">
+        <v>11</v>
       </c>
       <c r="B424" s="1">
         <v>35564</v>
@@ -17575,8 +17569,8 @@
       </c>
     </row>
     <row r="425" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A425" t="s">
-        <v>20</v>
+      <c r="A425">
+        <v>11</v>
       </c>
       <c r="B425" s="1">
         <v>35600</v>
@@ -17619,8 +17613,8 @@
       </c>
     </row>
     <row r="426" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A426" t="s">
-        <v>20</v>
+      <c r="A426">
+        <v>11</v>
       </c>
       <c r="B426" s="1">
         <v>35636</v>
@@ -17663,8 +17657,8 @@
       </c>
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A427" t="s">
-        <v>20</v>
+      <c r="A427">
+        <v>11</v>
       </c>
       <c r="B427" s="1">
         <v>35654</v>
@@ -17707,8 +17701,8 @@
       </c>
     </row>
     <row r="428" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A428" t="s">
-        <v>20</v>
+      <c r="A428">
+        <v>11</v>
       </c>
       <c r="B428" s="1">
         <v>35684</v>
@@ -17751,8 +17745,8 @@
       </c>
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A429" t="s">
-        <v>20</v>
+      <c r="A429">
+        <v>11</v>
       </c>
       <c r="B429" s="1">
         <v>35711</v>
@@ -17792,8 +17786,8 @@
       </c>
     </row>
     <row r="430" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A430" t="s">
-        <v>20</v>
+      <c r="A430">
+        <v>11</v>
       </c>
       <c r="B430" s="1">
         <v>35720</v>
@@ -17836,8 +17830,8 @@
       </c>
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A431" t="s">
-        <v>20</v>
+      <c r="A431">
+        <v>11</v>
       </c>
       <c r="B431" s="1">
         <v>35744</v>
@@ -17880,8 +17874,8 @@
       </c>
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A432" t="s">
-        <v>20</v>
+      <c r="A432">
+        <v>11</v>
       </c>
       <c r="B432" s="1">
         <v>35774</v>
@@ -17924,8 +17918,8 @@
       </c>
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A433" t="s">
-        <v>20</v>
+      <c r="A433">
+        <v>11</v>
       </c>
       <c r="B433" s="1">
         <v>35816</v>
@@ -17968,8 +17962,8 @@
       </c>
     </row>
     <row r="434" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A434" t="s">
-        <v>20</v>
+      <c r="A434">
+        <v>11</v>
       </c>
       <c r="B434" s="1">
         <v>35822</v>
@@ -18009,8 +18003,8 @@
       </c>
     </row>
     <row r="435" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A435" t="s">
-        <v>20</v>
+      <c r="A435">
+        <v>11</v>
       </c>
       <c r="B435" s="1">
         <v>35846</v>
@@ -18056,8 +18050,8 @@
       </c>
     </row>
     <row r="436" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A436" t="s">
-        <v>20</v>
+      <c r="A436">
+        <v>11</v>
       </c>
       <c r="B436" s="1">
         <v>35870</v>
@@ -18103,8 +18097,8 @@
       </c>
     </row>
     <row r="437" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A437" t="s">
-        <v>20</v>
+      <c r="A437">
+        <v>11</v>
       </c>
       <c r="B437" s="1">
         <v>35894</v>
@@ -18147,8 +18141,8 @@
       </c>
     </row>
     <row r="438" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A438" t="s">
-        <v>20</v>
+      <c r="A438">
+        <v>11</v>
       </c>
       <c r="B438" s="1">
         <v>35896</v>
@@ -18188,8 +18182,8 @@
       </c>
     </row>
     <row r="439" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A439" t="s">
-        <v>20</v>
+      <c r="A439">
+        <v>11</v>
       </c>
       <c r="B439" s="1">
         <v>35930</v>
@@ -18232,8 +18226,8 @@
       </c>
     </row>
     <row r="440" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A440" t="s">
-        <v>20</v>
+      <c r="A440">
+        <v>11</v>
       </c>
       <c r="B440" s="1">
         <v>35948</v>
@@ -18279,8 +18273,8 @@
       </c>
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A441" t="s">
-        <v>20</v>
+      <c r="A441">
+        <v>11</v>
       </c>
       <c r="B441" s="1">
         <v>35990</v>
@@ -18323,8 +18317,8 @@
       </c>
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A442" t="s">
-        <v>20</v>
+      <c r="A442">
+        <v>11</v>
       </c>
       <c r="B442" s="1">
         <v>36014</v>
@@ -18367,8 +18361,8 @@
       </c>
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A443" t="s">
-        <v>20</v>
+      <c r="A443">
+        <v>11</v>
       </c>
       <c r="B443" s="1">
         <v>36032</v>
@@ -18414,8 +18408,8 @@
       </c>
     </row>
     <row r="444" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A444" t="s">
-        <v>20</v>
+      <c r="A444">
+        <v>11</v>
       </c>
       <c r="B444" s="1">
         <v>36062</v>
@@ -18461,8 +18455,8 @@
       </c>
     </row>
     <row r="445" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A445" t="s">
-        <v>20</v>
+      <c r="A445">
+        <v>11</v>
       </c>
       <c r="B445" s="1">
         <v>36074</v>
@@ -18508,8 +18502,8 @@
       </c>
     </row>
     <row r="446" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A446" t="s">
-        <v>20</v>
+      <c r="A446">
+        <v>11</v>
       </c>
       <c r="B446" s="1">
         <v>36110</v>
@@ -18555,8 +18549,8 @@
       </c>
     </row>
     <row r="447" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A447" t="s">
-        <v>20</v>
+      <c r="A447">
+        <v>11</v>
       </c>
       <c r="B447" s="1">
         <v>36146</v>
@@ -18599,8 +18593,8 @@
       </c>
     </row>
     <row r="448" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A448" t="s">
-        <v>20</v>
+      <c r="A448">
+        <v>11</v>
       </c>
       <c r="B448" s="1">
         <v>36182</v>
@@ -18646,8 +18640,8 @@
       </c>
     </row>
     <row r="449" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A449" t="s">
-        <v>20</v>
+      <c r="A449">
+        <v>11</v>
       </c>
       <c r="B449" s="1">
         <v>36206</v>
@@ -18690,8 +18684,8 @@
       </c>
     </row>
     <row r="450" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A450" t="s">
-        <v>20</v>
+      <c r="A450">
+        <v>11</v>
       </c>
       <c r="B450" s="1">
         <v>36236</v>
@@ -18734,8 +18728,8 @@
       </c>
     </row>
     <row r="451" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A451" t="s">
-        <v>20</v>
+      <c r="A451">
+        <v>11</v>
       </c>
       <c r="B451" s="1">
         <v>36272</v>
@@ -18778,8 +18772,8 @@
       </c>
     </row>
     <row r="452" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A452" t="s">
-        <v>20</v>
+      <c r="A452">
+        <v>11</v>
       </c>
       <c r="B452" s="1">
         <v>36284</v>
@@ -18822,8 +18816,8 @@
       </c>
     </row>
     <row r="453" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A453" t="s">
-        <v>20</v>
+      <c r="A453">
+        <v>11</v>
       </c>
       <c r="B453" s="1">
         <v>36326</v>
@@ -18869,8 +18863,8 @@
       </c>
     </row>
     <row r="454" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A454" t="s">
-        <v>20</v>
+      <c r="A454">
+        <v>11</v>
       </c>
       <c r="B454" s="1">
         <v>36350</v>
@@ -18913,8 +18907,8 @@
       </c>
     </row>
     <row r="455" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A455" t="s">
-        <v>20</v>
+      <c r="A455">
+        <v>11</v>
       </c>
       <c r="B455" s="1">
         <v>36356</v>
@@ -18954,8 +18948,8 @@
       </c>
     </row>
     <row r="456" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A456" t="s">
-        <v>20</v>
+      <c r="A456">
+        <v>11</v>
       </c>
       <c r="B456" s="1">
         <v>36398</v>
@@ -18998,8 +18992,8 @@
       </c>
     </row>
     <row r="457" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A457" t="s">
-        <v>20</v>
+      <c r="A457">
+        <v>11</v>
       </c>
       <c r="B457" s="1">
         <v>36416</v>
@@ -19042,8 +19036,8 @@
       </c>
     </row>
     <row r="458" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A458" t="s">
-        <v>20</v>
+      <c r="A458">
+        <v>11</v>
       </c>
       <c r="B458" s="1">
         <v>36453</v>
@@ -19083,8 +19077,8 @@
       </c>
     </row>
     <row r="459" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A459" t="s">
-        <v>20</v>
+      <c r="A459">
+        <v>11</v>
       </c>
       <c r="B459" s="1">
         <v>36458</v>
@@ -19127,8 +19121,8 @@
       </c>
     </row>
     <row r="460" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A460" t="s">
-        <v>20</v>
+      <c r="A460">
+        <v>11</v>
       </c>
       <c r="B460" s="1">
         <v>36482</v>
@@ -19171,8 +19165,8 @@
       </c>
     </row>
     <row r="461" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A461" t="s">
-        <v>20</v>
+      <c r="A461">
+        <v>11</v>
       </c>
       <c r="B461" s="1">
         <v>36500</v>
@@ -19215,8 +19209,8 @@
       </c>
     </row>
     <row r="462" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A462" t="s">
-        <v>20</v>
+      <c r="A462">
+        <v>11</v>
       </c>
       <c r="B462" s="1">
         <v>36530</v>
@@ -19259,8 +19253,8 @@
       </c>
     </row>
     <row r="463" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A463" t="s">
-        <v>20</v>
+      <c r="A463">
+        <v>11</v>
       </c>
       <c r="B463" s="1">
         <v>36566</v>
@@ -19303,8 +19297,8 @@
       </c>
     </row>
     <row r="464" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A464" t="s">
-        <v>20</v>
+      <c r="A464">
+        <v>11</v>
       </c>
       <c r="B464" s="1">
         <v>36594</v>
@@ -19344,8 +19338,8 @@
       </c>
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A465" t="s">
-        <v>20</v>
+      <c r="A465">
+        <v>11</v>
       </c>
       <c r="B465" s="1">
         <v>36608</v>
@@ -19388,8 +19382,8 @@
       </c>
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A466" t="s">
-        <v>20</v>
+      <c r="A466">
+        <v>11</v>
       </c>
       <c r="B466" s="1">
         <v>36620</v>
@@ -19432,8 +19426,8 @@
       </c>
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A467" t="s">
-        <v>20</v>
+      <c r="A467">
+        <v>11</v>
       </c>
       <c r="B467" s="1">
         <v>36656</v>
@@ -19476,8 +19470,8 @@
       </c>
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A468" t="s">
-        <v>20</v>
+      <c r="A468">
+        <v>11</v>
       </c>
       <c r="B468" s="1">
         <v>36698</v>
@@ -19520,8 +19514,8 @@
       </c>
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A469" t="s">
-        <v>20</v>
+      <c r="A469">
+        <v>11</v>
       </c>
       <c r="B469" s="1">
         <v>36710</v>
@@ -19561,8 +19555,8 @@
       </c>
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A470" t="s">
-        <v>20</v>
+      <c r="A470">
+        <v>11</v>
       </c>
       <c r="B470" s="1">
         <v>36746</v>
@@ -19602,8 +19596,8 @@
       </c>
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A471" t="s">
-        <v>20</v>
+      <c r="A471">
+        <v>11</v>
       </c>
       <c r="B471" s="1">
         <v>36776</v>
@@ -19643,8 +19637,8 @@
       </c>
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A472" t="s">
-        <v>20</v>
+      <c r="A472">
+        <v>11</v>
       </c>
       <c r="B472" s="1">
         <v>36818</v>
@@ -19684,8 +19678,8 @@
       </c>
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A473" t="s">
-        <v>20</v>
+      <c r="A473">
+        <v>11</v>
       </c>
       <c r="B473" s="1">
         <v>36836</v>
@@ -19725,8 +19719,8 @@
       </c>
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A474" t="s">
-        <v>20</v>
+      <c r="A474">
+        <v>11</v>
       </c>
       <c r="B474" s="1">
         <v>36866</v>
@@ -19766,8 +19760,8 @@
       </c>
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A475" t="s">
-        <v>20</v>
+      <c r="A475">
+        <v>11</v>
       </c>
       <c r="B475" s="1">
         <v>36902</v>
@@ -19807,8 +19801,8 @@
       </c>
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A476" t="s">
-        <v>20</v>
+      <c r="A476">
+        <v>11</v>
       </c>
       <c r="B476" s="1">
         <v>36944</v>
@@ -19848,8 +19842,8 @@
       </c>
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A477" t="s">
-        <v>20</v>
+      <c r="A477">
+        <v>11</v>
       </c>
       <c r="B477" s="1">
         <v>36956</v>
@@ -19889,8 +19883,8 @@
       </c>
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A478" t="s">
-        <v>20</v>
+      <c r="A478">
+        <v>11</v>
       </c>
       <c r="B478" s="1">
         <v>36986</v>
@@ -19930,8 +19924,8 @@
       </c>
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A479" t="s">
-        <v>20</v>
+      <c r="A479">
+        <v>11</v>
       </c>
       <c r="B479" s="1">
         <v>37028</v>
@@ -19971,8 +19965,8 @@
       </c>
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A480" t="s">
-        <v>20</v>
+      <c r="A480">
+        <v>11</v>
       </c>
       <c r="B480" s="1">
         <v>37046</v>
@@ -20012,8 +20006,8 @@
       </c>
     </row>
     <row r="481" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A481" t="s">
-        <v>20</v>
+      <c r="A481">
+        <v>11</v>
       </c>
       <c r="B481" s="1">
         <v>37076</v>
@@ -20053,8 +20047,8 @@
       </c>
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A482" t="s">
-        <v>20</v>
+      <c r="A482">
+        <v>11</v>
       </c>
       <c r="B482" s="1">
         <v>37110</v>
@@ -20094,8 +20088,8 @@
       </c>
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A483" t="s">
-        <v>20</v>
+      <c r="A483">
+        <v>11</v>
       </c>
       <c r="B483" s="1">
         <v>37140</v>
@@ -20135,8 +20129,8 @@
       </c>
     </row>
     <row r="484" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A484" t="s">
-        <v>20</v>
+      <c r="A484">
+        <v>11</v>
       </c>
       <c r="B484" s="1">
         <v>37182</v>
@@ -20176,8 +20170,8 @@
       </c>
     </row>
     <row r="485" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A485" t="s">
-        <v>20</v>
+      <c r="A485">
+        <v>11</v>
       </c>
       <c r="B485" s="1">
         <v>37200</v>
@@ -20217,8 +20211,8 @@
       </c>
     </row>
     <row r="486" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A486" t="s">
-        <v>20</v>
+      <c r="A486">
+        <v>11</v>
       </c>
       <c r="B486" s="1">
         <v>37230</v>
@@ -20258,8 +20252,8 @@
       </c>
     </row>
     <row r="487" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A487" t="s">
-        <v>20</v>
+      <c r="A487">
+        <v>11</v>
       </c>
       <c r="B487" s="1">
         <v>37266</v>
@@ -20299,8 +20293,8 @@
       </c>
     </row>
     <row r="488" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A488" t="s">
-        <v>20</v>
+      <c r="A488">
+        <v>11</v>
       </c>
       <c r="B488" s="1">
         <v>37292</v>
@@ -20340,8 +20334,8 @@
       </c>
     </row>
     <row r="489" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A489" t="s">
-        <v>20</v>
+      <c r="A489">
+        <v>11</v>
       </c>
       <c r="B489" s="1">
         <v>37302</v>
@@ -20381,8 +20375,8 @@
       </c>
     </row>
     <row r="490" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A490" t="s">
-        <v>20</v>
+      <c r="A490">
+        <v>11</v>
       </c>
       <c r="B490" s="1">
         <v>37320</v>
@@ -20422,8 +20416,8 @@
       </c>
     </row>
     <row r="491" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A491" t="s">
-        <v>20</v>
+      <c r="A491">
+        <v>11</v>
       </c>
       <c r="B491" s="1">
         <v>37346</v>
@@ -20463,8 +20457,8 @@
       </c>
     </row>
     <row r="492" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A492" t="s">
-        <v>20</v>
+      <c r="A492">
+        <v>11</v>
       </c>
       <c r="B492" s="1">
         <v>37356</v>
@@ -20504,8 +20498,8 @@
       </c>
     </row>
     <row r="493" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A493" t="s">
-        <v>20</v>
+      <c r="A493">
+        <v>11</v>
       </c>
       <c r="B493" s="1">
         <v>37386</v>
@@ -20545,8 +20539,8 @@
       </c>
     </row>
     <row r="494" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A494" t="s">
-        <v>20</v>
+      <c r="A494">
+        <v>11</v>
       </c>
       <c r="B494" s="1">
         <v>37410</v>
@@ -20586,8 +20580,8 @@
       </c>
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A495" t="s">
-        <v>20</v>
+      <c r="A495">
+        <v>11</v>
       </c>
       <c r="B495" s="1">
         <v>37452</v>
@@ -20630,8 +20624,8 @@
       </c>
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A496" t="s">
-        <v>20</v>
+      <c r="A496">
+        <v>11</v>
       </c>
       <c r="B496" s="1">
         <v>37482</v>
@@ -20674,8 +20668,8 @@
       </c>
     </row>
     <row r="497" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A497" t="s">
-        <v>20</v>
+      <c r="A497">
+        <v>11</v>
       </c>
       <c r="B497" s="1">
         <v>37512</v>
@@ -20718,8 +20712,8 @@
       </c>
     </row>
     <row r="498" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A498" t="s">
-        <v>20</v>
+      <c r="A498">
+        <v>11</v>
       </c>
       <c r="B498" s="1">
         <v>37554</v>
@@ -20762,8 +20756,8 @@
       </c>
     </row>
     <row r="499" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A499" t="s">
-        <v>20</v>
+      <c r="A499">
+        <v>11</v>
       </c>
       <c r="B499" s="1">
         <v>37572</v>
@@ -20806,8 +20800,8 @@
       </c>
     </row>
     <row r="500" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A500" t="s">
-        <v>20</v>
+      <c r="A500">
+        <v>11</v>
       </c>
       <c r="B500" s="1">
         <v>37602</v>
@@ -20850,8 +20844,8 @@
       </c>
     </row>
     <row r="501" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A501" t="s">
-        <v>20</v>
+      <c r="A501">
+        <v>11</v>
       </c>
       <c r="B501" s="1">
         <v>37644</v>
@@ -20894,8 +20888,8 @@
       </c>
     </row>
     <row r="502" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A502" t="s">
-        <v>20</v>
+      <c r="A502">
+        <v>11</v>
       </c>
       <c r="B502" s="1">
         <v>37662</v>
@@ -20938,8 +20932,8 @@
       </c>
     </row>
     <row r="503" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A503" t="s">
-        <v>20</v>
+      <c r="A503">
+        <v>11</v>
       </c>
       <c r="B503" s="1">
         <v>37674</v>
@@ -20979,8 +20973,8 @@
       </c>
     </row>
     <row r="504" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A504" t="s">
-        <v>20</v>
+      <c r="A504">
+        <v>11</v>
       </c>
       <c r="B504" s="1">
         <v>37686</v>
@@ -21023,8 +21017,8 @@
       </c>
     </row>
     <row r="505" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A505" t="s">
-        <v>20</v>
+      <c r="A505">
+        <v>11</v>
       </c>
       <c r="B505" s="1">
         <v>37734</v>
@@ -21067,8 +21061,8 @@
       </c>
     </row>
     <row r="506" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A506" t="s">
-        <v>20</v>
+      <c r="A506">
+        <v>11</v>
       </c>
       <c r="B506" s="1">
         <v>37758</v>
@@ -21108,8 +21102,8 @@
       </c>
     </row>
     <row r="507" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A507" t="s">
-        <v>20</v>
+      <c r="A507">
+        <v>11</v>
       </c>
       <c r="B507" s="1">
         <v>37770</v>
@@ -21152,8 +21146,8 @@
       </c>
     </row>
     <row r="508" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A508" t="s">
-        <v>20</v>
+      <c r="A508">
+        <v>11</v>
       </c>
       <c r="B508" s="1">
         <v>37788</v>
@@ -21196,8 +21190,8 @@
       </c>
     </row>
     <row r="509" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A509" t="s">
-        <v>20</v>
+      <c r="A509">
+        <v>11</v>
       </c>
       <c r="B509" s="1">
         <v>37818</v>
@@ -21237,8 +21231,8 @@
       </c>
     </row>
     <row r="510" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A510" t="s">
-        <v>20</v>
+      <c r="A510">
+        <v>11</v>
       </c>
       <c r="B510" s="1">
         <v>37843</v>
@@ -21278,8 +21272,8 @@
       </c>
     </row>
     <row r="511" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A511" t="s">
-        <v>20</v>
+      <c r="A511">
+        <v>11</v>
       </c>
       <c r="B511" s="1">
         <v>37848</v>
@@ -21319,8 +21313,8 @@
       </c>
     </row>
     <row r="512" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A512" t="s">
-        <v>20</v>
+      <c r="A512">
+        <v>11</v>
       </c>
       <c r="B512" s="1">
         <v>37878</v>
@@ -21360,8 +21354,8 @@
       </c>
     </row>
     <row r="513" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A513" t="s">
-        <v>20</v>
+      <c r="A513">
+        <v>11</v>
       </c>
       <c r="B513" s="1">
         <v>37938</v>
@@ -21401,8 +21395,8 @@
       </c>
     </row>
     <row r="514" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A514" t="s">
-        <v>20</v>
+      <c r="A514">
+        <v>11</v>
       </c>
       <c r="B514" s="1">
         <v>37974</v>
@@ -21442,8 +21436,8 @@
       </c>
     </row>
     <row r="515" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A515" t="s">
-        <v>20</v>
+      <c r="A515">
+        <v>11</v>
       </c>
       <c r="B515" s="1">
         <v>38004</v>
@@ -21483,8 +21477,8 @@
       </c>
     </row>
     <row r="516" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A516" t="s">
-        <v>20</v>
+      <c r="A516">
+        <v>11</v>
       </c>
       <c r="B516" s="1">
         <v>38027</v>
@@ -21521,8 +21515,8 @@
       </c>
     </row>
     <row r="517" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A517" t="s">
-        <v>20</v>
+      <c r="A517">
+        <v>11</v>
       </c>
       <c r="B517" s="1">
         <v>38044</v>
@@ -21559,8 +21553,8 @@
       </c>
     </row>
     <row r="518" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A518" t="s">
-        <v>20</v>
+      <c r="A518">
+        <v>11</v>
       </c>
       <c r="B518" s="1">
         <v>38111</v>
@@ -21600,8 +21594,8 @@
       </c>
     </row>
     <row r="519" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A519" t="s">
-        <v>20</v>
+      <c r="A519">
+        <v>11</v>
       </c>
       <c r="B519" s="1">
         <v>38124</v>
@@ -21641,8 +21635,8 @@
       </c>
     </row>
     <row r="520" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A520" t="s">
-        <v>20</v>
+      <c r="A520">
+        <v>11</v>
       </c>
       <c r="B520" s="1">
         <v>38194</v>
@@ -21682,8 +21676,8 @@
       </c>
     </row>
     <row r="521" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A521" t="s">
-        <v>20</v>
+      <c r="A521">
+        <v>11</v>
       </c>
       <c r="B521" s="1">
         <v>38217</v>
@@ -21723,8 +21717,8 @@
       </c>
     </row>
     <row r="522" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A522" t="s">
-        <v>20</v>
+      <c r="A522">
+        <v>11</v>
       </c>
       <c r="B522" s="1">
         <v>38253</v>
@@ -21764,8 +21758,8 @@
       </c>
     </row>
     <row r="523" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A523" t="s">
-        <v>20</v>
+      <c r="A523">
+        <v>11</v>
       </c>
       <c r="B523" s="1">
         <v>38266</v>
@@ -21805,8 +21799,8 @@
       </c>
     </row>
     <row r="524" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A524" t="s">
-        <v>20</v>
+      <c r="A524">
+        <v>11</v>
       </c>
       <c r="B524" s="1">
         <v>38293</v>
@@ -21846,8 +21840,8 @@
       </c>
     </row>
     <row r="525" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A525" t="s">
-        <v>20</v>
+      <c r="A525">
+        <v>11</v>
       </c>
       <c r="B525" s="1">
         <v>38301</v>
@@ -21887,8 +21881,8 @@
       </c>
     </row>
     <row r="526" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A526" t="s">
-        <v>20</v>
+      <c r="A526">
+        <v>11</v>
       </c>
       <c r="B526" s="1">
         <v>38313</v>
@@ -21928,8 +21922,8 @@
       </c>
     </row>
     <row r="527" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A527" t="s">
-        <v>20</v>
+      <c r="A527">
+        <v>11</v>
       </c>
       <c r="B527" s="1">
         <v>38324</v>
@@ -21969,8 +21963,8 @@
       </c>
     </row>
     <row r="528" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A528" t="s">
-        <v>20</v>
+      <c r="A528">
+        <v>11</v>
       </c>
       <c r="B528" s="1">
         <v>38373</v>
@@ -22010,8 +22004,8 @@
       </c>
     </row>
     <row r="529" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A529" t="s">
-        <v>20</v>
+      <c r="A529">
+        <v>11</v>
       </c>
       <c r="B529" s="1">
         <v>38390</v>
@@ -22048,8 +22042,8 @@
       </c>
     </row>
     <row r="530" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A530" t="s">
-        <v>20</v>
+      <c r="A530">
+        <v>11</v>
       </c>
       <c r="B530" s="1">
         <v>38397</v>
@@ -22089,8 +22083,8 @@
       </c>
     </row>
     <row r="531" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A531" t="s">
-        <v>20</v>
+      <c r="A531">
+        <v>11</v>
       </c>
       <c r="B531" s="1">
         <v>38444</v>
@@ -22127,8 +22121,8 @@
       </c>
     </row>
     <row r="532" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A532" t="s">
-        <v>20</v>
+      <c r="A532">
+        <v>11</v>
       </c>
       <c r="B532" s="1">
         <v>38463</v>
@@ -22168,8 +22162,8 @@
       </c>
     </row>
     <row r="533" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A533" t="s">
-        <v>20</v>
+      <c r="A533">
+        <v>11</v>
       </c>
       <c r="B533" s="1">
         <v>38473</v>
@@ -22209,8 +22203,8 @@
       </c>
     </row>
     <row r="534" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A534" t="s">
-        <v>20</v>
+      <c r="A534">
+        <v>11</v>
       </c>
       <c r="B534" s="1">
         <v>38499</v>
@@ -22250,8 +22244,8 @@
       </c>
     </row>
     <row r="535" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A535" t="s">
-        <v>20</v>
+      <c r="A535">
+        <v>11</v>
       </c>
       <c r="B535" s="1">
         <v>38523</v>
@@ -22291,8 +22285,8 @@
       </c>
     </row>
     <row r="536" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A536" t="s">
-        <v>20</v>
+      <c r="A536">
+        <v>11</v>
       </c>
       <c r="B536" s="1">
         <v>38553</v>
@@ -22332,8 +22326,8 @@
       </c>
     </row>
     <row r="537" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A537" t="s">
-        <v>20</v>
+      <c r="A537">
+        <v>11</v>
       </c>
       <c r="B537" s="1">
         <v>38628</v>
@@ -22373,8 +22367,8 @@
       </c>
     </row>
     <row r="538" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A538" t="s">
-        <v>20</v>
+      <c r="A538">
+        <v>11</v>
       </c>
       <c r="B538" s="1">
         <v>38655</v>
@@ -22414,8 +22408,8 @@
       </c>
     </row>
     <row r="539" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A539" t="s">
-        <v>20</v>
+      <c r="A539">
+        <v>11</v>
       </c>
       <c r="B539" s="1">
         <v>38685</v>
@@ -22455,8 +22449,8 @@
       </c>
     </row>
     <row r="540" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A540" t="s">
-        <v>20</v>
+      <c r="A540">
+        <v>11</v>
       </c>
       <c r="B540" s="1">
         <v>38703</v>
@@ -22499,8 +22493,8 @@
       </c>
     </row>
     <row r="541" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A541" t="s">
-        <v>20</v>
+      <c r="A541">
+        <v>11</v>
       </c>
       <c r="B541" s="1">
         <v>38733</v>
@@ -22543,8 +22537,8 @@
       </c>
     </row>
     <row r="542" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A542" t="s">
-        <v>20</v>
+      <c r="A542">
+        <v>11</v>
       </c>
       <c r="B542" s="1">
         <v>38763</v>
@@ -22587,8 +22581,8 @@
       </c>
     </row>
     <row r="543" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A543" t="s">
-        <v>20</v>
+      <c r="A543">
+        <v>11</v>
       </c>
       <c r="B543" s="1">
         <v>38799</v>
@@ -22631,8 +22625,8 @@
       </c>
     </row>
     <row r="544" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A544" t="s">
-        <v>20</v>
+      <c r="A544">
+        <v>11</v>
       </c>
       <c r="B544" s="1">
         <v>38883</v>
@@ -22675,8 +22669,8 @@
       </c>
     </row>
     <row r="545" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A545" t="s">
-        <v>20</v>
+      <c r="A545">
+        <v>11</v>
       </c>
       <c r="B545" s="1">
         <v>38909</v>
@@ -22719,8 +22713,8 @@
       </c>
     </row>
     <row r="546" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A546" t="s">
-        <v>20</v>
+      <c r="A546">
+        <v>11</v>
       </c>
       <c r="B546" s="1">
         <v>38910</v>
@@ -22763,16 +22757,16 @@
       </c>
     </row>
     <row r="547" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A547" t="s">
-        <v>20</v>
+      <c r="A547">
+        <v>11</v>
       </c>
       <c r="B547" s="1">
         <v>38938</v>
       </c>
     </row>
     <row r="548" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A548" t="s">
-        <v>20</v>
+      <c r="A548">
+        <v>11</v>
       </c>
       <c r="B548" s="1">
         <v>38939</v>
@@ -22815,8 +22809,8 @@
       </c>
     </row>
     <row r="549" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A549" t="s">
-        <v>20</v>
+      <c r="A549">
+        <v>11</v>
       </c>
       <c r="B549" s="1">
         <v>38968</v>
@@ -22859,8 +22853,8 @@
       </c>
     </row>
     <row r="550" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A550" t="s">
-        <v>20</v>
+      <c r="A550">
+        <v>11</v>
       </c>
       <c r="B550" s="1">
         <v>38974</v>
@@ -22903,8 +22897,8 @@
       </c>
     </row>
     <row r="551" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A551" t="s">
-        <v>20</v>
+      <c r="A551">
+        <v>11</v>
       </c>
       <c r="B551" s="1">
         <v>38994</v>
@@ -22947,8 +22941,8 @@
       </c>
     </row>
     <row r="552" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A552" t="s">
-        <v>20</v>
+      <c r="A552">
+        <v>11</v>
       </c>
       <c r="B552" s="1">
         <v>38995</v>
@@ -22991,8 +22985,8 @@
       </c>
     </row>
     <row r="553" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A553" t="s">
-        <v>20</v>
+      <c r="A553">
+        <v>11</v>
       </c>
       <c r="B553" s="1">
         <v>38997</v>
@@ -23035,16 +23029,16 @@
       </c>
     </row>
     <row r="554" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A554" t="s">
-        <v>20</v>
+      <c r="A554">
+        <v>11</v>
       </c>
       <c r="B554" s="1">
         <v>39126</v>
       </c>
     </row>
     <row r="555" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A555" t="s">
-        <v>20</v>
+      <c r="A555">
+        <v>11</v>
       </c>
       <c r="B555" s="1">
         <v>39150</v>
@@ -23087,8 +23081,8 @@
       </c>
     </row>
     <row r="556" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A556" t="s">
-        <v>20</v>
+      <c r="A556">
+        <v>11</v>
       </c>
       <c r="B556" s="1">
         <v>39151</v>
@@ -23131,8 +23125,8 @@
       </c>
     </row>
     <row r="557" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A557" t="s">
-        <v>20</v>
+      <c r="A557">
+        <v>11</v>
       </c>
       <c r="B557" s="1">
         <v>39204</v>
@@ -23175,8 +23169,8 @@
       </c>
     </row>
     <row r="558" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A558" t="s">
-        <v>20</v>
+      <c r="A558">
+        <v>11</v>
       </c>
       <c r="B558" s="1">
         <v>39208</v>
@@ -23219,8 +23213,8 @@
       </c>
     </row>
     <row r="559" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A559" t="s">
-        <v>20</v>
+      <c r="A559">
+        <v>11</v>
       </c>
       <c r="B559" s="1">
         <v>39220</v>
@@ -23263,8 +23257,8 @@
       </c>
     </row>
     <row r="560" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A560" t="s">
-        <v>20</v>
+      <c r="A560">
+        <v>11</v>
       </c>
       <c r="B560" s="1">
         <v>39266</v>
@@ -23307,8 +23301,8 @@
       </c>
     </row>
     <row r="561" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A561" t="s">
-        <v>20</v>
+      <c r="A561">
+        <v>11</v>
       </c>
       <c r="B561" s="1">
         <v>39288</v>
@@ -23351,8 +23345,8 @@
       </c>
     </row>
     <row r="562" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A562" t="s">
-        <v>20</v>
+      <c r="A562">
+        <v>11</v>
       </c>
       <c r="B562" s="1">
         <v>39306</v>
@@ -23395,8 +23389,8 @@
       </c>
     </row>
     <row r="563" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A563" t="s">
-        <v>20</v>
+      <c r="A563">
+        <v>11</v>
       </c>
       <c r="B563" s="1">
         <v>39310</v>
@@ -23439,8 +23433,8 @@
       </c>
     </row>
     <row r="564" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A564" t="s">
-        <v>20</v>
+      <c r="A564">
+        <v>11</v>
       </c>
       <c r="B564" s="1">
         <v>39417</v>
@@ -23483,8 +23477,8 @@
       </c>
     </row>
     <row r="565" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A565" t="s">
-        <v>20</v>
+      <c r="A565">
+        <v>11</v>
       </c>
       <c r="B565" s="1">
         <v>39420</v>
@@ -23527,8 +23521,8 @@
       </c>
     </row>
     <row r="566" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A566" t="s">
-        <v>20</v>
+      <c r="A566">
+        <v>11</v>
       </c>
       <c r="B566" s="1">
         <v>39502</v>
@@ -23571,8 +23565,8 @@
       </c>
     </row>
     <row r="567" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A567" t="s">
-        <v>20</v>
+      <c r="A567">
+        <v>11</v>
       </c>
       <c r="B567" s="1">
         <v>39538</v>
@@ -23615,8 +23609,8 @@
       </c>
     </row>
     <row r="568" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A568" t="s">
-        <v>20</v>
+      <c r="A568">
+        <v>11</v>
       </c>
       <c r="B568" s="1">
         <v>39568</v>
@@ -23659,8 +23653,8 @@
       </c>
     </row>
     <row r="569" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A569" t="s">
-        <v>20</v>
+      <c r="A569">
+        <v>11</v>
       </c>
       <c r="B569" s="1">
         <v>39577</v>
@@ -23700,8 +23694,8 @@
       </c>
     </row>
     <row r="570" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A570" t="s">
-        <v>20</v>
+      <c r="A570">
+        <v>11</v>
       </c>
       <c r="B570" s="1">
         <v>39579</v>
@@ -23741,8 +23735,8 @@
       </c>
     </row>
     <row r="571" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A571" t="s">
-        <v>20</v>
+      <c r="A571">
+        <v>11</v>
       </c>
       <c r="B571" s="1">
         <v>39598</v>
@@ -23785,8 +23779,8 @@
       </c>
     </row>
     <row r="572" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A572" t="s">
-        <v>20</v>
+      <c r="A572">
+        <v>11</v>
       </c>
       <c r="B572" s="1">
         <v>39601</v>
@@ -23826,8 +23820,8 @@
       </c>
     </row>
     <row r="573" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A573" t="s">
-        <v>20</v>
+      <c r="A573">
+        <v>11</v>
       </c>
       <c r="B573" s="1">
         <v>39605</v>
@@ -23867,8 +23861,8 @@
       </c>
     </row>
     <row r="574" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A574" t="s">
-        <v>20</v>
+      <c r="A574">
+        <v>11</v>
       </c>
       <c r="B574" s="1">
         <v>39622</v>
@@ -23911,8 +23905,8 @@
       </c>
     </row>
     <row r="575" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A575" t="s">
-        <v>20</v>
+      <c r="A575">
+        <v>11</v>
       </c>
       <c r="B575" s="1">
         <v>39630</v>
@@ -23955,8 +23949,8 @@
       </c>
     </row>
     <row r="576" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A576" t="s">
-        <v>20</v>
+      <c r="A576">
+        <v>11</v>
       </c>
       <c r="B576" s="1">
         <v>39632</v>
@@ -23999,8 +23993,8 @@
       </c>
     </row>
     <row r="577" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A577" t="s">
-        <v>20</v>
+      <c r="A577">
+        <v>11</v>
       </c>
       <c r="B577" s="1">
         <v>39660</v>
@@ -24040,8 +24034,8 @@
       </c>
     </row>
     <row r="578" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A578" t="s">
-        <v>20</v>
+      <c r="A578">
+        <v>11</v>
       </c>
       <c r="B578" s="1">
         <v>39674</v>
@@ -24081,8 +24075,8 @@
       </c>
     </row>
     <row r="579" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A579" t="s">
-        <v>20</v>
+      <c r="A579">
+        <v>11</v>
       </c>
       <c r="B579" s="1">
         <v>39716</v>
@@ -24122,8 +24116,8 @@
       </c>
     </row>
     <row r="580" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A580" t="s">
-        <v>20</v>
+      <c r="A580">
+        <v>11</v>
       </c>
       <c r="B580" s="1">
         <v>39738</v>
@@ -24163,8 +24157,8 @@
       </c>
     </row>
     <row r="581" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A581" t="s">
-        <v>20</v>
+      <c r="A581">
+        <v>11</v>
       </c>
       <c r="B581" s="1">
         <v>39759</v>
@@ -24204,8 +24198,8 @@
       </c>
     </row>
     <row r="582" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A582" t="s">
-        <v>20</v>
+      <c r="A582">
+        <v>11</v>
       </c>
       <c r="B582" s="1">
         <v>39777</v>
@@ -24245,8 +24239,8 @@
       </c>
     </row>
     <row r="583" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A583" t="s">
-        <v>20</v>
+      <c r="A583">
+        <v>11</v>
       </c>
       <c r="B583" s="1">
         <v>39798</v>
@@ -24286,8 +24280,8 @@
       </c>
     </row>
     <row r="584" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A584" t="s">
-        <v>20</v>
+      <c r="A584">
+        <v>11</v>
       </c>
       <c r="B584" s="1">
         <v>39817</v>
@@ -24327,8 +24321,8 @@
       </c>
     </row>
     <row r="585" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A585" t="s">
-        <v>20</v>
+      <c r="A585">
+        <v>11</v>
       </c>
       <c r="B585" s="1">
         <v>39843</v>
@@ -24368,8 +24362,8 @@
       </c>
     </row>
     <row r="586" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A586" t="s">
-        <v>20</v>
+      <c r="A586">
+        <v>11</v>
       </c>
       <c r="B586" s="1">
         <v>39861</v>
@@ -24409,8 +24403,8 @@
       </c>
     </row>
     <row r="587" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A587" t="s">
-        <v>20</v>
+      <c r="A587">
+        <v>11</v>
       </c>
       <c r="B587" s="1">
         <v>39885</v>
@@ -24456,8 +24450,8 @@
       </c>
     </row>
     <row r="588" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A588" t="s">
-        <v>20</v>
+      <c r="A588">
+        <v>11</v>
       </c>
       <c r="B588" s="1">
         <v>39909</v>
@@ -24497,8 +24491,8 @@
       </c>
     </row>
     <row r="589" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A589" t="s">
-        <v>20</v>
+      <c r="A589">
+        <v>11</v>
       </c>
       <c r="B589" s="1">
         <v>39927</v>
@@ -24538,8 +24532,8 @@
       </c>
     </row>
     <row r="590" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A590" t="s">
-        <v>20</v>
+      <c r="A590">
+        <v>11</v>
       </c>
       <c r="B590" s="1">
         <v>39948</v>
@@ -24579,8 +24573,8 @@
       </c>
     </row>
     <row r="591" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A591" t="s">
-        <v>20</v>
+      <c r="A591">
+        <v>11</v>
       </c>
       <c r="B591" s="1">
         <v>39965</v>
@@ -24620,8 +24614,8 @@
       </c>
     </row>
     <row r="592" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A592" t="s">
-        <v>20</v>
+      <c r="A592">
+        <v>11</v>
       </c>
       <c r="B592" s="1">
         <v>39988</v>
@@ -24661,8 +24655,8 @@
       </c>
     </row>
     <row r="593" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A593" t="s">
-        <v>20</v>
+      <c r="A593">
+        <v>11</v>
       </c>
       <c r="B593" s="1">
         <v>40002</v>
@@ -24702,8 +24696,8 @@
       </c>
     </row>
     <row r="594" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A594" t="s">
-        <v>20</v>
+      <c r="A594">
+        <v>11</v>
       </c>
       <c r="B594" s="1">
         <v>40010</v>
@@ -24743,8 +24737,8 @@
       </c>
     </row>
     <row r="595" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A595" t="s">
-        <v>20</v>
+      <c r="A595">
+        <v>11</v>
       </c>
       <c r="B595" s="1">
         <v>40052</v>
@@ -24784,8 +24778,8 @@
       </c>
     </row>
     <row r="596" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A596" t="s">
-        <v>20</v>
+      <c r="A596">
+        <v>11</v>
       </c>
       <c r="B596" s="1">
         <v>40066</v>
@@ -24825,8 +24819,8 @@
       </c>
     </row>
     <row r="597" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A597" t="s">
-        <v>20</v>
+      <c r="A597">
+        <v>11</v>
       </c>
       <c r="B597" s="1">
         <v>40074</v>
@@ -24866,8 +24860,8 @@
       </c>
     </row>
     <row r="598" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A598" t="s">
-        <v>20</v>
+      <c r="A598">
+        <v>11</v>
       </c>
       <c r="B598" s="1">
         <v>40098</v>
@@ -24907,8 +24901,8 @@
       </c>
     </row>
     <row r="599" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A599" t="s">
-        <v>20</v>
+      <c r="A599">
+        <v>11</v>
       </c>
       <c r="B599" s="1">
         <v>40115</v>
@@ -24948,8 +24942,8 @@
       </c>
     </row>
     <row r="600" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A600" t="s">
-        <v>20</v>
+      <c r="A600">
+        <v>11</v>
       </c>
       <c r="B600" s="1">
         <v>40137</v>
@@ -24989,8 +24983,8 @@
       </c>
     </row>
     <row r="601" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A601" t="s">
-        <v>20</v>
+      <c r="A601">
+        <v>11</v>
       </c>
       <c r="B601" s="1">
         <v>40169</v>
@@ -25030,8 +25024,8 @@
       </c>
     </row>
     <row r="602" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A602" t="s">
-        <v>20</v>
+      <c r="A602">
+        <v>11</v>
       </c>
       <c r="B602" s="1">
         <v>40188</v>
@@ -25077,8 +25071,8 @@
       </c>
     </row>
     <row r="603" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A603" t="s">
-        <v>20</v>
+      <c r="A603">
+        <v>11</v>
       </c>
       <c r="B603" s="1">
         <v>40190</v>
@@ -25124,8 +25118,8 @@
       </c>
     </row>
     <row r="604" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A604" t="s">
-        <v>20</v>
+      <c r="A604">
+        <v>11</v>
       </c>
       <c r="B604" s="1">
         <v>40196</v>
@@ -25165,8 +25159,8 @@
       </c>
     </row>
     <row r="605" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A605" t="s">
-        <v>20</v>
+      <c r="A605">
+        <v>11</v>
       </c>
       <c r="B605" s="1">
         <v>40227</v>
@@ -25212,8 +25206,8 @@
       </c>
     </row>
     <row r="606" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A606" t="s">
-        <v>20</v>
+      <c r="A606">
+        <v>11</v>
       </c>
       <c r="B606" s="1">
         <v>40263</v>
@@ -25253,8 +25247,8 @@
       </c>
     </row>
     <row r="607" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A607" t="s">
-        <v>20</v>
+      <c r="A607">
+        <v>11</v>
       </c>
       <c r="B607" s="1">
         <v>40273</v>
@@ -25294,8 +25288,8 @@
       </c>
     </row>
     <row r="608" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A608" t="s">
-        <v>20</v>
+      <c r="A608">
+        <v>11</v>
       </c>
       <c r="B608" s="1">
         <v>40284</v>
@@ -25335,8 +25329,8 @@
       </c>
     </row>
     <row r="609" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A609" t="s">
-        <v>20</v>
+      <c r="A609">
+        <v>11</v>
       </c>
       <c r="B609" s="1">
         <v>40301</v>
@@ -25376,8 +25370,8 @@
       </c>
     </row>
     <row r="610" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A610" t="s">
-        <v>20</v>
+      <c r="A610">
+        <v>11</v>
       </c>
       <c r="B610" s="1">
         <v>40325</v>
@@ -25417,8 +25411,8 @@
       </c>
     </row>
     <row r="611" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A611" t="s">
-        <v>20</v>
+      <c r="A611">
+        <v>11</v>
       </c>
       <c r="B611" s="1">
         <v>40347</v>
@@ -25458,8 +25452,8 @@
       </c>
     </row>
     <row r="612" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A612" t="s">
-        <v>20</v>
+      <c r="A612">
+        <v>11</v>
       </c>
       <c r="B612" s="1">
         <v>40366</v>
@@ -25499,8 +25493,8 @@
       </c>
     </row>
     <row r="613" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A613" t="s">
-        <v>20</v>
+      <c r="A613">
+        <v>11</v>
       </c>
       <c r="B613" s="1">
         <v>40385</v>
@@ -25540,8 +25534,8 @@
       </c>
     </row>
     <row r="614" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A614" t="s">
-        <v>20</v>
+      <c r="A614">
+        <v>11</v>
       </c>
       <c r="B614" s="1">
         <v>40410</v>
@@ -25581,8 +25575,8 @@
       </c>
     </row>
     <row r="615" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A615" t="s">
-        <v>20</v>
+      <c r="A615">
+        <v>11</v>
       </c>
       <c r="B615" s="1">
         <v>40460</v>
@@ -25628,8 +25622,8 @@
       </c>
     </row>
     <row r="616" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A616" t="s">
-        <v>20</v>
+      <c r="A616">
+        <v>11</v>
       </c>
       <c r="B616" s="1">
         <v>40462</v>
@@ -25675,8 +25669,8 @@
       </c>
     </row>
     <row r="617" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A617" t="s">
-        <v>20</v>
+      <c r="A617">
+        <v>11</v>
       </c>
       <c r="B617" s="1">
         <v>40471</v>
@@ -25722,8 +25716,8 @@
       </c>
     </row>
     <row r="618" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A618" t="s">
-        <v>20</v>
+      <c r="A618">
+        <v>11</v>
       </c>
       <c r="B618" s="1">
         <v>40484</v>
@@ -25769,8 +25763,8 @@
       </c>
     </row>
     <row r="619" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A619" t="s">
-        <v>20</v>
+      <c r="A619">
+        <v>11</v>
       </c>
       <c r="B619" s="1">
         <v>40534</v>
@@ -25816,8 +25810,8 @@
       </c>
     </row>
     <row r="620" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A620" t="s">
-        <v>20</v>
+      <c r="A620">
+        <v>11</v>
       </c>
       <c r="B620" s="1">
         <v>40557</v>
@@ -25863,8 +25857,8 @@
       </c>
     </row>
     <row r="621" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A621" t="s">
-        <v>20</v>
+      <c r="A621">
+        <v>11</v>
       </c>
       <c r="B621" s="1">
         <v>40576</v>
@@ -25910,8 +25904,8 @@
       </c>
     </row>
     <row r="622" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A622" t="s">
-        <v>20</v>
+      <c r="A622">
+        <v>11</v>
       </c>
       <c r="B622" s="1">
         <v>40597</v>
@@ -25957,8 +25951,8 @@
       </c>
     </row>
     <row r="623" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A623" t="s">
-        <v>20</v>
+      <c r="A623">
+        <v>11</v>
       </c>
       <c r="B623" s="1">
         <v>40618</v>
@@ -26004,8 +25998,8 @@
       </c>
     </row>
     <row r="624" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A624" t="s">
-        <v>20</v>
+      <c r="A624">
+        <v>11</v>
       </c>
       <c r="B624" s="1">
         <v>40644</v>
@@ -26051,8 +26045,8 @@
       </c>
     </row>
     <row r="625" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A625" t="s">
-        <v>20</v>
+      <c r="A625">
+        <v>11</v>
       </c>
       <c r="B625" s="1">
         <v>40660</v>
@@ -26098,8 +26092,8 @@
       </c>
     </row>
     <row r="626" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A626" t="s">
-        <v>20</v>
+      <c r="A626">
+        <v>11</v>
       </c>
       <c r="B626" s="1">
         <v>40679</v>
@@ -26142,8 +26136,8 @@
       </c>
     </row>
     <row r="627" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A627" t="s">
-        <v>20</v>
+      <c r="A627">
+        <v>11</v>
       </c>
       <c r="B627" s="1">
         <v>40698</v>
@@ -26189,8 +26183,8 @@
       </c>
     </row>
     <row r="628" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A628" t="s">
-        <v>20</v>
+      <c r="A628">
+        <v>11</v>
       </c>
       <c r="B628" s="1">
         <v>40723</v>
@@ -26236,8 +26230,8 @@
       </c>
     </row>
     <row r="629" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A629" t="s">
-        <v>20</v>
+      <c r="A629">
+        <v>11</v>
       </c>
       <c r="B629" s="1">
         <v>40730</v>
@@ -26283,8 +26277,8 @@
       </c>
     </row>
     <row r="630" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A630" t="s">
-        <v>20</v>
+      <c r="A630">
+        <v>11</v>
       </c>
       <c r="B630" s="1">
         <v>40745</v>
@@ -26330,8 +26324,8 @@
       </c>
     </row>
     <row r="631" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A631" t="s">
-        <v>20</v>
+      <c r="A631">
+        <v>11</v>
       </c>
       <c r="B631" s="1">
         <v>40786</v>
@@ -26377,8 +26371,8 @@
       </c>
     </row>
     <row r="632" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A632" t="s">
-        <v>20</v>
+      <c r="A632">
+        <v>11</v>
       </c>
       <c r="B632" s="1">
         <v>40808</v>
@@ -26418,8 +26412,8 @@
       </c>
     </row>
     <row r="633" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A633" t="s">
-        <v>20</v>
+      <c r="A633">
+        <v>11</v>
       </c>
       <c r="B633" s="1">
         <v>40830</v>
@@ -26459,8 +26453,8 @@
       </c>
     </row>
     <row r="634" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A634" t="s">
-        <v>20</v>
+      <c r="A634">
+        <v>11</v>
       </c>
       <c r="B634" s="1">
         <v>40855</v>
@@ -26506,8 +26500,8 @@
       </c>
     </row>
     <row r="635" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A635" t="s">
-        <v>20</v>
+      <c r="A635">
+        <v>11</v>
       </c>
       <c r="B635" s="1">
         <v>40872</v>
@@ -26553,8 +26547,8 @@
       </c>
     </row>
     <row r="636" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A636" t="s">
-        <v>20</v>
+      <c r="A636">
+        <v>11</v>
       </c>
       <c r="B636" s="1">
         <v>40891</v>
@@ -26600,8 +26594,8 @@
       </c>
     </row>
     <row r="637" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A637" t="s">
-        <v>20</v>
+      <c r="A637">
+        <v>11</v>
       </c>
       <c r="B637" s="1">
         <v>40914</v>
@@ -26641,8 +26635,8 @@
       </c>
     </row>
     <row r="638" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A638" t="s">
-        <v>20</v>
+      <c r="A638">
+        <v>11</v>
       </c>
       <c r="B638" s="1">
         <v>40932</v>
@@ -26688,8 +26682,8 @@
       </c>
     </row>
     <row r="639" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A639" t="s">
-        <v>20</v>
+      <c r="A639">
+        <v>11</v>
       </c>
       <c r="B639" s="1">
         <v>40956</v>
@@ -26735,8 +26729,8 @@
       </c>
     </row>
     <row r="640" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A640" t="s">
-        <v>20</v>
+      <c r="A640">
+        <v>11</v>
       </c>
       <c r="B640" s="1">
         <v>40976</v>
@@ -26776,8 +26770,8 @@
       </c>
     </row>
     <row r="641" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A641" t="s">
-        <v>20</v>
+      <c r="A641">
+        <v>11</v>
       </c>
       <c r="B641" s="1">
         <v>40996</v>
@@ -26823,8 +26817,8 @@
       </c>
     </row>
     <row r="642" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A642" t="s">
-        <v>20</v>
+      <c r="A642">
+        <v>11</v>
       </c>
       <c r="B642" s="1">
         <v>41009</v>
@@ -26864,8 +26858,8 @@
       </c>
     </row>
     <row r="643" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A643" t="s">
-        <v>20</v>
+      <c r="A643">
+        <v>11</v>
       </c>
       <c r="B643" s="1">
         <v>41016</v>
@@ -26911,8 +26905,8 @@
       </c>
     </row>
     <row r="644" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A644" t="s">
-        <v>20</v>
+      <c r="A644">
+        <v>11</v>
       </c>
       <c r="B644" s="1">
         <v>41061</v>
@@ -26958,8 +26952,8 @@
       </c>
     </row>
     <row r="645" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A645" t="s">
-        <v>20</v>
+      <c r="A645">
+        <v>11</v>
       </c>
       <c r="B645" s="1">
         <v>41081</v>
@@ -26999,8 +26993,8 @@
       </c>
     </row>
     <row r="646" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A646" t="s">
-        <v>20</v>
+      <c r="A646">
+        <v>11</v>
       </c>
       <c r="B646" s="1">
         <v>41102</v>
@@ -27040,8 +27034,8 @@
       </c>
     </row>
     <row r="647" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A647" t="s">
-        <v>20</v>
+      <c r="A647">
+        <v>11</v>
       </c>
       <c r="B647" s="1">
         <v>41145</v>
@@ -27081,8 +27075,8 @@
       </c>
     </row>
     <row r="648" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A648" t="s">
-        <v>20</v>
+      <c r="A648">
+        <v>11</v>
       </c>
       <c r="B648" s="1">
         <v>41206</v>
@@ -27122,8 +27116,8 @@
       </c>
     </row>
     <row r="649" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A649" t="s">
-        <v>20</v>
+      <c r="A649">
+        <v>11</v>
       </c>
       <c r="B649" s="1">
         <v>41218</v>
@@ -27163,8 +27157,8 @@
       </c>
     </row>
     <row r="650" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A650" t="s">
-        <v>20</v>
+      <c r="A650">
+        <v>11</v>
       </c>
       <c r="B650" s="1">
         <v>41229</v>
@@ -27204,8 +27198,8 @@
       </c>
     </row>
     <row r="651" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A651" t="s">
-        <v>20</v>
+      <c r="A651">
+        <v>11</v>
       </c>
       <c r="B651" s="1">
         <v>41250</v>
@@ -27245,8 +27239,8 @@
       </c>
     </row>
     <row r="652" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A652" t="s">
-        <v>20</v>
+      <c r="A652">
+        <v>11</v>
       </c>
       <c r="B652" s="1">
         <v>41252</v>
@@ -27286,8 +27280,8 @@
       </c>
     </row>
     <row r="653" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A653" t="s">
-        <v>20</v>
+      <c r="A653">
+        <v>11</v>
       </c>
       <c r="B653" s="1">
         <v>41261</v>
@@ -27327,8 +27321,8 @@
       </c>
     </row>
     <row r="654" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A654" t="s">
-        <v>20</v>
+      <c r="A654">
+        <v>11</v>
       </c>
       <c r="B654" s="1">
         <v>41277</v>
@@ -27368,8 +27362,8 @@
       </c>
     </row>
     <row r="655" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A655" t="s">
-        <v>20</v>
+      <c r="A655">
+        <v>11</v>
       </c>
       <c r="B655" s="1">
         <v>41279</v>
@@ -27409,8 +27403,8 @@
       </c>
     </row>
     <row r="656" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A656" t="s">
-        <v>20</v>
+      <c r="A656">
+        <v>11</v>
       </c>
       <c r="B656" s="1">
         <v>41291</v>
@@ -27450,8 +27444,8 @@
       </c>
     </row>
     <row r="657" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A657" t="s">
-        <v>20</v>
+      <c r="A657">
+        <v>11</v>
       </c>
       <c r="B657" s="1">
         <v>41314</v>
@@ -27491,8 +27485,8 @@
       </c>
     </row>
     <row r="658" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A658" t="s">
-        <v>20</v>
+      <c r="A658">
+        <v>11</v>
       </c>
       <c r="B658" s="1">
         <v>41352</v>
@@ -27532,8 +27526,8 @@
       </c>
     </row>
     <row r="659" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A659" t="s">
-        <v>20</v>
+      <c r="A659">
+        <v>11</v>
       </c>
       <c r="B659" s="1">
         <v>41401</v>
@@ -27573,8 +27567,8 @@
       </c>
     </row>
     <row r="660" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A660" t="s">
-        <v>20</v>
+      <c r="A660">
+        <v>11</v>
       </c>
       <c r="B660" s="1">
         <v>41417</v>
@@ -27614,8 +27608,8 @@
       </c>
     </row>
     <row r="661" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A661" t="s">
-        <v>20</v>
+      <c r="A661">
+        <v>11</v>
       </c>
       <c r="B661" s="1">
         <v>41439</v>
@@ -27655,8 +27649,8 @@
       </c>
     </row>
     <row r="662" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A662" t="s">
-        <v>20</v>
+      <c r="A662">
+        <v>11</v>
       </c>
       <c r="B662" s="1">
         <v>41480</v>
@@ -27696,8 +27690,8 @@
       </c>
     </row>
     <row r="663" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A663" t="s">
-        <v>20</v>
+      <c r="A663">
+        <v>11</v>
       </c>
       <c r="B663" s="1">
         <v>41488</v>
@@ -27737,8 +27731,8 @@
       </c>
     </row>
     <row r="664" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A664" t="s">
-        <v>20</v>
+      <c r="A664">
+        <v>11</v>
       </c>
       <c r="B664" s="1">
         <v>41497</v>
@@ -27778,8 +27772,8 @@
       </c>
     </row>
     <row r="665" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A665" t="s">
-        <v>20</v>
+      <c r="A665">
+        <v>11</v>
       </c>
       <c r="B665" s="1">
         <v>41502</v>
@@ -27819,8 +27813,8 @@
       </c>
     </row>
     <row r="666" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A666" t="s">
-        <v>20</v>
+      <c r="A666">
+        <v>11</v>
       </c>
       <c r="B666" s="1">
         <v>41541</v>
@@ -27860,8 +27854,8 @@
       </c>
     </row>
     <row r="667" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A667" t="s">
-        <v>20</v>
+      <c r="A667">
+        <v>11</v>
       </c>
       <c r="B667" s="1">
         <v>41564</v>
@@ -27901,8 +27895,8 @@
       </c>
     </row>
     <row r="668" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A668" t="s">
-        <v>20</v>
+      <c r="A668">
+        <v>11</v>
       </c>
       <c r="B668" s="1">
         <v>41582</v>
@@ -27942,8 +27936,8 @@
       </c>
     </row>
     <row r="669" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A669" t="s">
-        <v>20</v>
+      <c r="A669">
+        <v>11</v>
       </c>
       <c r="B669" s="1">
         <v>41606</v>
@@ -27983,8 +27977,8 @@
       </c>
     </row>
     <row r="670" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A670" t="s">
-        <v>20</v>
+      <c r="A670">
+        <v>11</v>
       </c>
       <c r="B670" s="1">
         <v>41627</v>
@@ -28024,8 +28018,8 @@
       </c>
     </row>
     <row r="671" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A671" t="s">
-        <v>20</v>
+      <c r="A671">
+        <v>11</v>
       </c>
       <c r="B671" s="1">
         <v>41669</v>
@@ -28065,8 +28059,8 @@
       </c>
     </row>
     <row r="672" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A672" t="s">
-        <v>20</v>
+      <c r="A672">
+        <v>11</v>
       </c>
       <c r="B672" s="1">
         <v>41691</v>
@@ -28106,8 +28100,8 @@
       </c>
     </row>
     <row r="673" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A673" t="s">
-        <v>20</v>
+      <c r="A673">
+        <v>11</v>
       </c>
       <c r="B673" s="1">
         <v>41702</v>
@@ -28147,8 +28141,8 @@
       </c>
     </row>
     <row r="674" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A674" t="s">
-        <v>20</v>
+      <c r="A674">
+        <v>11</v>
       </c>
       <c r="B674" s="1">
         <v>41711</v>
@@ -28188,8 +28182,8 @@
       </c>
     </row>
     <row r="675" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A675" t="s">
-        <v>20</v>
+      <c r="A675">
+        <v>11</v>
       </c>
       <c r="B675" s="1">
         <v>41759</v>
@@ -28229,8 +28223,8 @@
       </c>
     </row>
     <row r="676" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A676" t="s">
-        <v>20</v>
+      <c r="A676">
+        <v>11</v>
       </c>
       <c r="B676" s="1">
         <v>41765</v>
@@ -28270,8 +28264,8 @@
       </c>
     </row>
     <row r="677" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A677" t="s">
-        <v>20</v>
+      <c r="A677">
+        <v>11</v>
       </c>
       <c r="B677" s="1">
         <v>41773</v>
@@ -28311,8 +28305,8 @@
       </c>
     </row>
     <row r="678" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A678" t="s">
-        <v>20</v>
+      <c r="A678">
+        <v>11</v>
       </c>
       <c r="B678" s="1">
         <v>41816</v>
@@ -28352,8 +28346,8 @@
       </c>
     </row>
     <row r="679" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A679" t="s">
-        <v>20</v>
+      <c r="A679">
+        <v>11</v>
       </c>
       <c r="B679" s="1">
         <v>41842</v>
@@ -28393,8 +28387,8 @@
       </c>
     </row>
     <row r="680" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A680" t="s">
-        <v>20</v>
+      <c r="A680">
+        <v>11</v>
       </c>
       <c r="B680" s="1">
         <v>41859</v>
@@ -28434,8 +28428,8 @@
       </c>
     </row>
     <row r="681" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A681" t="s">
-        <v>20</v>
+      <c r="A681">
+        <v>11</v>
       </c>
       <c r="B681" s="1">
         <v>41861</v>
@@ -28475,8 +28469,8 @@
       </c>
     </row>
     <row r="682" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A682" t="s">
-        <v>20</v>
+      <c r="A682">
+        <v>11</v>
       </c>
       <c r="B682" s="1">
         <v>41877</v>
@@ -28516,8 +28510,8 @@
       </c>
     </row>
     <row r="683" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A683" t="s">
-        <v>20</v>
+      <c r="A683">
+        <v>11</v>
       </c>
       <c r="B683" s="1">
         <v>41883</v>
@@ -28557,8 +28551,8 @@
       </c>
     </row>
     <row r="684" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A684" t="s">
-        <v>20</v>
+      <c r="A684">
+        <v>11</v>
       </c>
       <c r="B684" s="1">
         <v>41898</v>
@@ -28598,8 +28592,8 @@
       </c>
     </row>
     <row r="685" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A685" t="s">
-        <v>20</v>
+      <c r="A685">
+        <v>11</v>
       </c>
       <c r="B685" s="1">
         <v>41924</v>
@@ -28639,8 +28633,8 @@
       </c>
     </row>
     <row r="686" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A686" t="s">
-        <v>20</v>
+      <c r="A686">
+        <v>11</v>
       </c>
       <c r="B686" s="1">
         <v>41942</v>
@@ -28680,8 +28674,8 @@
       </c>
     </row>
     <row r="687" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A687" t="s">
-        <v>20</v>
+      <c r="A687">
+        <v>11</v>
       </c>
       <c r="B687" s="1">
         <v>41960</v>
@@ -28721,8 +28715,8 @@
       </c>
     </row>
     <row r="688" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A688" t="s">
-        <v>20</v>
+      <c r="A688">
+        <v>11</v>
       </c>
       <c r="B688" s="1">
         <v>42027</v>
@@ -28762,8 +28756,8 @@
       </c>
     </row>
     <row r="689" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A689" t="s">
-        <v>20</v>
+      <c r="A689">
+        <v>11</v>
       </c>
       <c r="B689" s="1">
         <v>42089</v>
@@ -28803,8 +28797,8 @@
       </c>
     </row>
     <row r="690" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A690" t="s">
-        <v>20</v>
+      <c r="A690">
+        <v>11</v>
       </c>
       <c r="B690" s="1">
         <v>42111</v>
@@ -28844,8 +28838,8 @@
       </c>
     </row>
     <row r="691" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A691" t="s">
-        <v>20</v>
+      <c r="A691">
+        <v>11</v>
       </c>
       <c r="B691" s="1">
         <v>42127</v>
@@ -28885,8 +28879,8 @@
       </c>
     </row>
     <row r="692" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A692" t="s">
-        <v>20</v>
+      <c r="A692">
+        <v>11</v>
       </c>
       <c r="B692" s="1">
         <v>42153</v>
@@ -28926,8 +28920,8 @@
       </c>
     </row>
     <row r="693" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A693" t="s">
-        <v>20</v>
+      <c r="A693">
+        <v>11</v>
       </c>
       <c r="B693" s="1">
         <v>42180</v>
@@ -28967,8 +28961,8 @@
       </c>
     </row>
     <row r="694" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A694" t="s">
-        <v>20</v>
+      <c r="A694">
+        <v>11</v>
       </c>
       <c r="B694" s="1">
         <v>42193</v>
@@ -29008,8 +29002,8 @@
       </c>
     </row>
     <row r="695" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A695" t="s">
-        <v>20</v>
+      <c r="A695">
+        <v>11</v>
       </c>
       <c r="B695" s="1">
         <v>42217</v>
@@ -29049,8 +29043,8 @@
       </c>
     </row>
     <row r="696" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A696" t="s">
-        <v>20</v>
+      <c r="A696">
+        <v>11</v>
       </c>
       <c r="B696" s="1">
         <v>42221</v>
@@ -29090,8 +29084,8 @@
       </c>
     </row>
     <row r="697" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A697" t="s">
-        <v>20</v>
+      <c r="A697">
+        <v>11</v>
       </c>
       <c r="B697" s="1">
         <v>42228</v>
@@ -29131,8 +29125,8 @@
       </c>
     </row>
     <row r="698" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A698" t="s">
-        <v>20</v>
+      <c r="A698">
+        <v>11</v>
       </c>
       <c r="B698" s="1">
         <v>42243</v>
@@ -29172,8 +29166,8 @@
       </c>
     </row>
     <row r="699" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A699" t="s">
-        <v>20</v>
+      <c r="A699">
+        <v>11</v>
       </c>
       <c r="B699" s="1">
         <v>42265</v>
@@ -29213,8 +29207,8 @@
       </c>
     </row>
     <row r="700" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A700" t="s">
-        <v>20</v>
+      <c r="A700">
+        <v>11</v>
       </c>
       <c r="B700" s="1">
         <v>42279</v>
@@ -29254,8 +29248,8 @@
       </c>
     </row>
     <row r="701" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A701" t="s">
-        <v>20</v>
+      <c r="A701">
+        <v>11</v>
       </c>
       <c r="B701" s="1">
         <v>42291</v>
@@ -29295,8 +29289,8 @@
       </c>
     </row>
     <row r="702" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A702" t="s">
-        <v>20</v>
+      <c r="A702">
+        <v>11</v>
       </c>
       <c r="B702" s="1">
         <v>42303</v>
@@ -29336,16 +29330,16 @@
       </c>
     </row>
     <row r="703" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A703" t="s">
-        <v>20</v>
+      <c r="A703">
+        <v>11</v>
       </c>
       <c r="B703" s="1">
         <v>42324</v>
       </c>
     </row>
     <row r="704" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A704" t="s">
-        <v>20</v>
+      <c r="A704">
+        <v>11</v>
       </c>
       <c r="B704" s="1">
         <v>42325</v>
@@ -29385,8 +29379,8 @@
       </c>
     </row>
     <row r="705" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A705" t="s">
-        <v>20</v>
+      <c r="A705">
+        <v>11</v>
       </c>
       <c r="B705" s="1">
         <v>42389</v>
@@ -29426,8 +29420,8 @@
       </c>
     </row>
     <row r="706" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A706" t="s">
-        <v>20</v>
+      <c r="A706">
+        <v>11</v>
       </c>
       <c r="B706" s="1">
         <v>42403</v>
@@ -29467,8 +29461,8 @@
       </c>
     </row>
     <row r="707" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A707" t="s">
-        <v>20</v>
+      <c r="A707">
+        <v>11</v>
       </c>
       <c r="B707" s="1">
         <v>42412</v>
@@ -29508,8 +29502,8 @@
       </c>
     </row>
     <row r="708" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A708" t="s">
-        <v>20</v>
+      <c r="A708">
+        <v>11</v>
       </c>
       <c r="B708" s="1">
         <v>42450</v>
@@ -29549,8 +29543,8 @@
       </c>
     </row>
     <row r="709" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A709" t="s">
-        <v>20</v>
+      <c r="A709">
+        <v>11</v>
       </c>
       <c r="B709" s="1">
         <v>42465</v>
@@ -29590,8 +29584,8 @@
       </c>
     </row>
     <row r="710" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A710" t="s">
-        <v>20</v>
+      <c r="A710">
+        <v>11</v>
       </c>
       <c r="B710" s="1">
         <v>42475</v>
@@ -29631,8 +29625,8 @@
       </c>
     </row>
     <row r="711" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A711" t="s">
-        <v>20</v>
+      <c r="A711">
+        <v>11</v>
       </c>
       <c r="B711" s="1">
         <v>42516</v>
@@ -29672,8 +29666,8 @@
       </c>
     </row>
     <row r="712" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A712" t="s">
-        <v>20</v>
+      <c r="A712">
+        <v>11</v>
       </c>
       <c r="B712" s="1">
         <v>42537</v>
@@ -29713,8 +29707,8 @@
       </c>
     </row>
     <row r="713" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A713" t="s">
-        <v>20</v>
+      <c r="A713">
+        <v>11</v>
       </c>
       <c r="B713" s="1">
         <v>42558</v>
@@ -29754,8 +29748,8 @@
       </c>
     </row>
     <row r="714" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A714" t="s">
-        <v>20</v>
+      <c r="A714">
+        <v>11</v>
       </c>
       <c r="B714" s="1">
         <v>42578</v>
@@ -29795,8 +29789,8 @@
       </c>
     </row>
     <row r="715" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A715" t="s">
-        <v>20</v>
+      <c r="A715">
+        <v>11</v>
       </c>
       <c r="B715" s="1">
         <v>42583</v>
@@ -29836,8 +29830,8 @@
       </c>
     </row>
     <row r="716" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A716" t="s">
-        <v>20</v>
+      <c r="A716">
+        <v>11</v>
       </c>
       <c r="B716" s="1">
         <v>42591</v>
@@ -29877,8 +29871,8 @@
       </c>
     </row>
     <row r="717" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A717" t="s">
-        <v>20</v>
+      <c r="A717">
+        <v>11</v>
       </c>
       <c r="B717" s="1">
         <v>42598</v>
@@ -29918,8 +29912,8 @@
       </c>
     </row>
     <row r="718" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A718" t="s">
-        <v>20</v>
+      <c r="A718">
+        <v>11</v>
       </c>
       <c r="B718" s="1">
         <v>42640</v>
@@ -29959,8 +29953,8 @@
       </c>
     </row>
     <row r="719" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A719" t="s">
-        <v>20</v>
+      <c r="A719">
+        <v>11</v>
       </c>
       <c r="B719" s="1">
         <v>42662</v>
@@ -30000,8 +29994,8 @@
       </c>
     </row>
     <row r="720" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A720" t="s">
-        <v>20</v>
+      <c r="A720">
+        <v>11</v>
       </c>
       <c r="B720" s="1">
         <v>42676</v>
@@ -30041,8 +30035,8 @@
       </c>
     </row>
     <row r="721" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A721" t="s">
-        <v>20</v>
+      <c r="A721">
+        <v>11</v>
       </c>
       <c r="B721" s="1">
         <v>42689</v>
@@ -30082,8 +30076,8 @@
       </c>
     </row>
     <row r="722" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A722" t="s">
-        <v>20</v>
+      <c r="A722">
+        <v>11</v>
       </c>
       <c r="B722" s="1">
         <v>42726</v>
@@ -30123,8 +30117,8 @@
       </c>
     </row>
     <row r="723" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A723" t="s">
-        <v>20</v>
+      <c r="A723">
+        <v>11</v>
       </c>
       <c r="B723" s="1">
         <v>42748</v>
@@ -30164,8 +30158,8 @@
       </c>
     </row>
     <row r="724" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A724" t="s">
-        <v>20</v>
+      <c r="A724">
+        <v>11</v>
       </c>
       <c r="B724" s="1">
         <v>42762</v>
@@ -30205,8 +30199,8 @@
       </c>
     </row>
     <row r="725" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A725" t="s">
-        <v>20</v>
+      <c r="A725">
+        <v>11</v>
       </c>
       <c r="B725" s="1">
         <v>42783</v>
@@ -30246,8 +30240,8 @@
       </c>
     </row>
     <row r="726" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A726" t="s">
-        <v>20</v>
+      <c r="A726">
+        <v>11</v>
       </c>
       <c r="B726" s="1">
         <v>42798</v>
@@ -30287,8 +30281,8 @@
       </c>
     </row>
     <row r="727" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A727" t="s">
-        <v>20</v>
+      <c r="A727">
+        <v>11</v>
       </c>
       <c r="B727" s="1">
         <v>42809</v>
@@ -30328,8 +30322,8 @@
       </c>
     </row>
     <row r="728" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A728" t="s">
-        <v>20</v>
+      <c r="A728">
+        <v>11</v>
       </c>
       <c r="B728" s="1">
         <v>42853</v>
@@ -30369,8 +30363,8 @@
       </c>
     </row>
     <row r="729" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A729" t="s">
-        <v>20</v>
+      <c r="A729">
+        <v>11</v>
       </c>
       <c r="B729" s="1">
         <v>42861</v>
@@ -30410,8 +30404,8 @@
       </c>
     </row>
     <row r="730" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A730" t="s">
-        <v>20</v>
+      <c r="A730">
+        <v>11</v>
       </c>
       <c r="B730" s="1">
         <v>42871</v>
@@ -30451,8 +30445,8 @@
       </c>
     </row>
     <row r="731" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A731" t="s">
-        <v>20</v>
+      <c r="A731">
+        <v>11</v>
       </c>
       <c r="B731" s="1">
         <v>42912</v>
@@ -30492,8 +30486,8 @@
       </c>
     </row>
     <row r="732" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A732" t="s">
-        <v>20</v>
+      <c r="A732">
+        <v>11</v>
       </c>
       <c r="B732" s="1">
         <v>42936</v>
@@ -30533,8 +30527,8 @@
       </c>
     </row>
     <row r="733" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A733" t="s">
-        <v>20</v>
+      <c r="A733">
+        <v>11</v>
       </c>
       <c r="B733" s="1">
         <v>42978</v>
@@ -30574,8 +30568,8 @@
       </c>
     </row>
     <row r="734" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A734" t="s">
-        <v>20</v>
+      <c r="A734">
+        <v>11</v>
       </c>
       <c r="B734" s="1">
         <v>42997</v>
@@ -30612,8 +30606,8 @@
       </c>
     </row>
     <row r="735" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A735" t="s">
-        <v>20</v>
+      <c r="A735">
+        <v>11</v>
       </c>
       <c r="B735" s="1">
         <v>43021</v>
@@ -30653,8 +30647,8 @@
       </c>
     </row>
     <row r="736" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A736" t="s">
-        <v>20</v>
+      <c r="A736">
+        <v>11</v>
       </c>
       <c r="B736" s="1">
         <v>43039</v>
@@ -30694,8 +30688,8 @@
       </c>
     </row>
     <row r="737" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A737" t="s">
-        <v>20</v>
+      <c r="A737">
+        <v>11</v>
       </c>
       <c r="B737" s="1">
         <v>43047</v>
@@ -30735,8 +30729,8 @@
       </c>
     </row>
     <row r="738" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A738" t="s">
-        <v>20</v>
+      <c r="A738">
+        <v>11</v>
       </c>
       <c r="B738" s="1">
         <v>43062</v>
@@ -30776,8 +30770,8 @@
       </c>
     </row>
     <row r="739" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A739" t="s">
-        <v>20</v>
+      <c r="A739">
+        <v>11</v>
       </c>
       <c r="B739" s="1">
         <v>43082</v>
@@ -30817,8 +30811,8 @@
       </c>
     </row>
     <row r="740" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A740" t="s">
-        <v>20</v>
+      <c r="A740">
+        <v>11</v>
       </c>
       <c r="B740" s="1">
         <v>43131</v>
@@ -30858,8 +30852,8 @@
       </c>
     </row>
     <row r="741" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A741" t="s">
-        <v>20</v>
+      <c r="A741">
+        <v>11</v>
       </c>
       <c r="B741" s="1">
         <v>43141</v>
@@ -30899,8 +30893,8 @@
       </c>
     </row>
     <row r="742" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A742" t="s">
-        <v>20</v>
+      <c r="A742">
+        <v>11</v>
       </c>
       <c r="B742" s="1">
         <v>43150</v>
@@ -30940,8 +30934,8 @@
       </c>
     </row>
     <row r="743" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A743" t="s">
-        <v>20</v>
+      <c r="A743">
+        <v>11</v>
       </c>
       <c r="B743" s="1">
         <v>43167</v>
@@ -30981,8 +30975,8 @@
       </c>
     </row>
     <row r="744" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A744" t="s">
-        <v>20</v>
+      <c r="A744">
+        <v>11</v>
       </c>
       <c r="B744" s="1">
         <v>43171</v>
@@ -31019,8 +31013,8 @@
       </c>
     </row>
     <row r="745" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A745" t="s">
-        <v>20</v>
+      <c r="A745">
+        <v>11</v>
       </c>
       <c r="B745" s="1">
         <v>43173</v>
@@ -31060,8 +31054,8 @@
       </c>
     </row>
     <row r="746" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A746" t="s">
-        <v>20</v>
+      <c r="A746">
+        <v>11</v>
       </c>
       <c r="B746" s="1">
         <v>43187</v>
@@ -31101,8 +31095,8 @@
       </c>
     </row>
     <row r="747" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A747" t="s">
-        <v>20</v>
+      <c r="A747">
+        <v>11</v>
       </c>
       <c r="B747" s="1">
         <v>43209</v>
@@ -31142,8 +31136,8 @@
       </c>
     </row>
     <row r="748" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A748" t="s">
-        <v>20</v>
+      <c r="A748">
+        <v>11</v>
       </c>
       <c r="B748" s="1">
         <v>43221</v>
@@ -31183,8 +31177,8 @@
       </c>
     </row>
     <row r="749" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A749" t="s">
-        <v>20</v>
+      <c r="A749">
+        <v>11</v>
       </c>
       <c r="B749" s="1">
         <v>43251</v>
@@ -31224,8 +31218,8 @@
       </c>
     </row>
     <row r="750" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A750" t="s">
-        <v>20</v>
+      <c r="A750">
+        <v>11</v>
       </c>
       <c r="B750" s="1">
         <v>43270</v>
@@ -31265,8 +31259,8 @@
       </c>
     </row>
     <row r="751" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A751" t="s">
-        <v>20</v>
+      <c r="A751">
+        <v>11</v>
       </c>
       <c r="B751" s="1">
         <v>43284</v>
@@ -31306,8 +31300,8 @@
       </c>
     </row>
     <row r="752" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A752" t="s">
-        <v>20</v>
+      <c r="A752">
+        <v>11</v>
       </c>
       <c r="B752" s="1">
         <v>43290</v>
@@ -31347,8 +31341,8 @@
       </c>
     </row>
     <row r="753" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A753" t="s">
-        <v>20</v>
+      <c r="A753">
+        <v>11</v>
       </c>
       <c r="B753" s="1">
         <v>43334</v>
@@ -31388,8 +31382,8 @@
       </c>
     </row>
     <row r="754" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A754" t="s">
-        <v>20</v>
+      <c r="A754">
+        <v>11</v>
       </c>
       <c r="B754" s="1">
         <v>43378</v>
@@ -31429,8 +31423,8 @@
       </c>
     </row>
     <row r="755" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A755" t="s">
-        <v>20</v>
+      <c r="A755">
+        <v>11</v>
       </c>
       <c r="B755" s="1">
         <v>43392</v>
@@ -31470,8 +31464,8 @@
       </c>
     </row>
     <row r="756" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A756" t="s">
-        <v>20</v>
+      <c r="A756">
+        <v>11</v>
       </c>
       <c r="B756" s="1">
         <v>43420</v>
@@ -31511,8 +31505,8 @@
       </c>
     </row>
     <row r="757" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A757" t="s">
-        <v>20</v>
+      <c r="A757">
+        <v>11</v>
       </c>
       <c r="B757" s="1">
         <v>43441</v>
@@ -31552,8 +31546,8 @@
       </c>
     </row>
     <row r="758" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A758" t="s">
-        <v>20</v>
+      <c r="A758">
+        <v>11</v>
       </c>
       <c r="B758" s="1">
         <v>43455</v>
@@ -31593,8 +31587,8 @@
       </c>
     </row>
     <row r="759" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A759" t="s">
-        <v>20</v>
+      <c r="A759">
+        <v>11</v>
       </c>
       <c r="B759" s="1">
         <v>43472</v>
@@ -31634,8 +31628,8 @@
       </c>
     </row>
     <row r="760" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A760" t="s">
-        <v>20</v>
+      <c r="A760">
+        <v>11</v>
       </c>
       <c r="B760" s="1">
         <v>43483</v>
@@ -31675,8 +31669,8 @@
       </c>
     </row>
     <row r="761" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A761" t="s">
-        <v>20</v>
+      <c r="A761">
+        <v>11</v>
       </c>
       <c r="B761" s="1">
         <v>43517</v>
@@ -31716,8 +31710,8 @@
       </c>
     </row>
     <row r="762" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A762" t="s">
-        <v>20</v>
+      <c r="A762">
+        <v>11</v>
       </c>
       <c r="B762" s="1">
         <v>43549</v>
@@ -31757,8 +31751,8 @@
       </c>
     </row>
     <row r="763" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A763" t="s">
-        <v>20</v>
+      <c r="A763">
+        <v>11</v>
       </c>
       <c r="B763" s="1">
         <v>43585</v>
@@ -31798,8 +31792,8 @@
       </c>
     </row>
     <row r="764" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A764" t="s">
-        <v>20</v>
+      <c r="A764">
+        <v>11</v>
       </c>
       <c r="B764" s="1">
         <v>43609</v>
@@ -31839,8 +31833,8 @@
       </c>
     </row>
     <row r="765" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A765" t="s">
-        <v>20</v>
+      <c r="A765">
+        <v>11</v>
       </c>
       <c r="B765" s="1">
         <v>43625</v>
@@ -31880,8 +31874,8 @@
       </c>
     </row>
     <row r="766" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A766" t="s">
-        <v>20</v>
+      <c r="A766">
+        <v>11</v>
       </c>
       <c r="B766" s="1">
         <v>43672</v>
@@ -31921,8 +31915,8 @@
       </c>
     </row>
     <row r="767" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A767" t="s">
-        <v>20</v>
+      <c r="A767">
+        <v>11</v>
       </c>
       <c r="B767" s="1">
         <v>43680</v>
@@ -31962,8 +31956,8 @@
       </c>
     </row>
     <row r="768" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A768" t="s">
-        <v>20</v>
+      <c r="A768">
+        <v>11</v>
       </c>
       <c r="B768" s="1">
         <v>43696</v>
@@ -32003,8 +31997,8 @@
       </c>
     </row>
     <row r="769" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A769" t="s">
-        <v>20</v>
+      <c r="A769">
+        <v>11</v>
       </c>
       <c r="B769" s="1">
         <v>43738</v>
@@ -32044,8 +32038,8 @@
       </c>
     </row>
     <row r="770" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A770" t="s">
-        <v>20</v>
+      <c r="A770">
+        <v>11</v>
       </c>
       <c r="B770" s="1">
         <v>43742</v>
@@ -32085,8 +32079,8 @@
       </c>
     </row>
     <row r="771" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A771" t="s">
-        <v>20</v>
+      <c r="A771">
+        <v>11</v>
       </c>
       <c r="B771" s="1">
         <v>43749</v>
@@ -32126,8 +32120,8 @@
       </c>
     </row>
     <row r="772" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A772" t="s">
-        <v>20</v>
+      <c r="A772">
+        <v>11</v>
       </c>
       <c r="B772" s="1">
         <v>43775</v>
@@ -32167,8 +32161,8 @@
       </c>
     </row>
     <row r="773" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A773" t="s">
-        <v>20</v>
+      <c r="A773">
+        <v>11</v>
       </c>
       <c r="B773" s="1">
         <v>43797</v>
@@ -32208,8 +32202,8 @@
       </c>
     </row>
     <row r="774" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A774" t="s">
-        <v>20</v>
+      <c r="A774">
+        <v>11</v>
       </c>
       <c r="B774" s="1">
         <v>43860</v>
@@ -32249,8 +32243,8 @@
       </c>
     </row>
     <row r="775" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A775" t="s">
-        <v>20</v>
+      <c r="A775">
+        <v>11</v>
       </c>
       <c r="B775" s="1">
         <v>43867</v>
@@ -32290,8 +32284,8 @@
       </c>
     </row>
     <row r="776" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A776" t="s">
-        <v>20</v>
+      <c r="A776">
+        <v>11</v>
       </c>
       <c r="B776" s="1">
         <v>43879</v>
@@ -32331,24 +32325,24 @@
       </c>
     </row>
     <row r="777" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A777" t="s">
-        <v>20</v>
+      <c r="A777">
+        <v>11</v>
       </c>
       <c r="B777" s="1">
         <v>43894</v>
       </c>
     </row>
     <row r="778" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A778" t="s">
-        <v>20</v>
+      <c r="A778">
+        <v>11</v>
       </c>
       <c r="B778" s="1">
         <v>43944</v>
       </c>
     </row>
     <row r="779" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A779" t="s">
-        <v>20</v>
+      <c r="A779">
+        <v>11</v>
       </c>
       <c r="B779" s="1">
         <v>43966</v>
@@ -32388,8 +32382,8 @@
       </c>
     </row>
     <row r="780" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A780" t="s">
-        <v>20</v>
+      <c r="A780">
+        <v>11</v>
       </c>
       <c r="B780" s="1">
         <v>44005</v>
@@ -32429,8 +32423,8 @@
       </c>
     </row>
     <row r="781" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A781" t="s">
-        <v>20</v>
+      <c r="A781">
+        <v>11</v>
       </c>
       <c r="B781" s="1">
         <v>44020</v>
@@ -32470,8 +32464,8 @@
       </c>
     </row>
     <row r="782" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A782" t="s">
-        <v>20</v>
+      <c r="A782">
+        <v>11</v>
       </c>
       <c r="B782" s="1">
         <v>44027</v>
@@ -32511,8 +32505,8 @@
       </c>
     </row>
     <row r="783" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A783" t="s">
-        <v>20</v>
+      <c r="A783">
+        <v>11</v>
       </c>
       <c r="B783" s="1">
         <v>44053</v>
@@ -32552,8 +32546,8 @@
       </c>
     </row>
     <row r="784" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A784" t="s">
-        <v>20</v>
+      <c r="A784">
+        <v>11</v>
       </c>
       <c r="B784" s="1">
         <v>44071</v>
@@ -32593,8 +32587,8 @@
       </c>
     </row>
     <row r="785" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A785" t="s">
-        <v>20</v>
+      <c r="A785">
+        <v>11</v>
       </c>
       <c r="B785" s="1">
         <v>44075</v>
@@ -32634,8 +32628,8 @@
       </c>
     </row>
     <row r="786" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A786" t="s">
-        <v>20</v>
+      <c r="A786">
+        <v>11</v>
       </c>
       <c r="B786" s="1">
         <v>44088</v>
@@ -32675,8 +32669,8 @@
       </c>
     </row>
     <row r="787" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A787" t="s">
-        <v>20</v>
+      <c r="A787">
+        <v>11</v>
       </c>
       <c r="B787" s="1">
         <v>44133</v>
@@ -32716,8 +32710,8 @@
       </c>
     </row>
     <row r="788" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A788" t="s">
-        <v>20</v>
+      <c r="A788">
+        <v>11</v>
       </c>
       <c r="B788" s="1">
         <v>44138</v>
